--- a/src/data/raw/HCLTECH.NS_data.xlsx
+++ b/src/data/raw/HCLTECH.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>962.0119018554688</v>
+        <v>962.0120239257812</v>
       </c>
       <c r="C2" t="n">
-        <v>966.1229341918397</v>
+        <v>966.1230567838038</v>
       </c>
       <c r="D2" t="n">
-        <v>954.7599979614896</v>
+        <v>954.7601191116034</v>
       </c>
       <c r="E2" t="n">
-        <v>959.8409655365144</v>
+        <v>959.8410873313555</v>
       </c>
       <c r="F2" t="n">
         <v>2484372</v>
@@ -481,16 +481,16 @@
         <v>44930</v>
       </c>
       <c r="B3" t="n">
-        <v>957.6238403320312</v>
+        <v>957.6239013671875</v>
       </c>
       <c r="C3" t="n">
-        <v>962.61244947642</v>
+        <v>962.6125108295306</v>
       </c>
       <c r="D3" t="n">
-        <v>952.9124199951318</v>
+        <v>952.9124807300008</v>
       </c>
       <c r="E3" t="n">
-        <v>957.2542928453987</v>
+        <v>957.2543538570015</v>
       </c>
       <c r="F3" t="n">
         <v>1219170</v>
@@ -521,16 +521,16 @@
         <v>44932</v>
       </c>
       <c r="B5" t="n">
-        <v>954.1134643554688</v>
+        <v>954.1134033203125</v>
       </c>
       <c r="C5" t="n">
-        <v>968.0630086397946</v>
+        <v>968.0629467122784</v>
       </c>
       <c r="D5" t="n">
-        <v>947.1386358282733</v>
+        <v>947.1385752393006</v>
       </c>
       <c r="E5" t="n">
-        <v>964.4601178295219</v>
+        <v>964.4600561324846</v>
       </c>
       <c r="F5" t="n">
         <v>1887689</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>986.1233520507812</v>
+        <v>986.1234130859375</v>
       </c>
       <c r="C6" t="n">
-        <v>989.4029306825395</v>
+        <v>989.402991920682</v>
       </c>
       <c r="D6" t="n">
-        <v>960.810986337129</v>
+        <v>960.8110458056007</v>
       </c>
       <c r="E6" t="n">
-        <v>965.3375761961061</v>
+        <v>965.3376359447467</v>
       </c>
       <c r="F6" t="n">
         <v>4562242</v>
@@ -561,16 +561,16 @@
         <v>44936</v>
       </c>
       <c r="B7" t="n">
-        <v>982.7977294921875</v>
+        <v>982.7978515625</v>
       </c>
       <c r="C7" t="n">
-        <v>990.8810874189669</v>
+        <v>990.8812104932887</v>
       </c>
       <c r="D7" t="n">
-        <v>975.8230140288313</v>
+        <v>975.8231352328355</v>
       </c>
       <c r="E7" t="n">
-        <v>980.1648868929057</v>
+        <v>980.1650086362008</v>
       </c>
       <c r="F7" t="n">
         <v>2297082</v>
@@ -581,16 +581,16 @@
         <v>44937</v>
       </c>
       <c r="B8" t="n">
-        <v>974.4373168945312</v>
+        <v>974.437255859375</v>
       </c>
       <c r="C8" t="n">
-        <v>997.3477956302044</v>
+        <v>997.3477331600202</v>
       </c>
       <c r="D8" t="n">
-        <v>970.511114386859</v>
+        <v>970.5110535976256</v>
       </c>
       <c r="E8" t="n">
-        <v>987.555407223905</v>
+        <v>987.55534536708</v>
       </c>
       <c r="F8" t="n">
         <v>3594167</v>
@@ -601,16 +601,16 @@
         <v>44938</v>
       </c>
       <c r="B9" t="n">
-        <v>990.0034790039062</v>
+        <v>990.0035400390625</v>
       </c>
       <c r="C9" t="n">
-        <v>992.6363215186041</v>
+        <v>992.636382716079</v>
       </c>
       <c r="D9" t="n">
-        <v>980.1648554036658</v>
+        <v>980.1649158322566</v>
       </c>
       <c r="E9" t="n">
-        <v>980.1648554036658</v>
+        <v>980.1649158322566</v>
       </c>
       <c r="F9" t="n">
         <v>4748542</v>
@@ -621,16 +621,16 @@
         <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>995.6851196289062</v>
+        <v>995.6849975585938</v>
       </c>
       <c r="C10" t="n">
-        <v>1001.412711802402</v>
+        <v>1001.412589029891</v>
       </c>
       <c r="D10" t="n">
-        <v>961.6887758176207</v>
+        <v>961.6886579152367</v>
       </c>
       <c r="E10" t="n">
-        <v>964.3678545194468</v>
+        <v>964.3677362886096</v>
       </c>
       <c r="F10" t="n">
         <v>8253765</v>
@@ -641,16 +641,16 @@
         <v>44942</v>
       </c>
       <c r="B11" t="n">
-        <v>1010.373474121094</v>
+        <v>1010.37353515625</v>
       </c>
       <c r="C11" t="n">
-        <v>1016.609207187562</v>
+        <v>1016.60926859941</v>
       </c>
       <c r="D11" t="n">
-        <v>996.3778078990657</v>
+        <v>996.3778680887646</v>
       </c>
       <c r="E11" t="n">
-        <v>1004.183976777955</v>
+        <v>1004.184037439213</v>
       </c>
       <c r="F11" t="n">
         <v>4508538</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>1026.401733398438</v>
+        <v>1026.401977539062</v>
       </c>
       <c r="C12" t="n">
-        <v>1029.080698936894</v>
+        <v>1029.08094371474</v>
       </c>
       <c r="D12" t="n">
-        <v>1011.574500407725</v>
+        <v>1011.574741021534</v>
       </c>
       <c r="E12" t="n">
-        <v>1014.253578716241</v>
+        <v>1014.253819967298</v>
       </c>
       <c r="F12" t="n">
         <v>4390338</v>
@@ -681,16 +681,16 @@
         <v>44944</v>
       </c>
       <c r="B13" t="n">
-        <v>1030.189208984375</v>
+        <v>1030.189453125</v>
       </c>
       <c r="C13" t="n">
-        <v>1040.073954527664</v>
+        <v>1040.074201010837</v>
       </c>
       <c r="D13" t="n">
-        <v>1029.219161055434</v>
+        <v>1029.219404966171</v>
       </c>
       <c r="E13" t="n">
-        <v>1033.699627721878</v>
+        <v>1033.699872694423</v>
       </c>
       <c r="F13" t="n">
         <v>6905092</v>
@@ -701,16 +701,16 @@
         <v>44945</v>
       </c>
       <c r="B14" t="n">
-        <v>1036.015380859375</v>
+        <v>1036.015502929688</v>
       </c>
       <c r="C14" t="n">
-        <v>1037.833069685729</v>
+        <v>1037.833191970214</v>
       </c>
       <c r="D14" t="n">
-        <v>1024.223389161224</v>
+        <v>1024.223509842125</v>
       </c>
       <c r="E14" t="n">
-        <v>1027.579183650896</v>
+        <v>1027.579304727198</v>
       </c>
       <c r="F14" t="n">
         <v>2298287</v>
@@ -721,16 +721,16 @@
         <v>44946</v>
       </c>
       <c r="B15" t="n">
-        <v>1032.65966796875</v>
+        <v>1032.659545898438</v>
       </c>
       <c r="C15" t="n">
-        <v>1045.337178037299</v>
+        <v>1045.337054468383</v>
       </c>
       <c r="D15" t="n">
-        <v>1031.960539320222</v>
+        <v>1031.960417332553</v>
       </c>
       <c r="E15" t="n">
-        <v>1035.689225445705</v>
+        <v>1035.68910301727</v>
       </c>
       <c r="F15" t="n">
         <v>4747128</v>
@@ -741,16 +741,16 @@
         <v>44949</v>
       </c>
       <c r="B16" t="n">
-        <v>1045.150634765625</v>
+        <v>1045.150756835938</v>
       </c>
       <c r="C16" t="n">
-        <v>1046.735394581538</v>
+        <v>1046.735516836945</v>
       </c>
       <c r="D16" t="n">
-        <v>1032.985865029132</v>
+        <v>1032.985985678638</v>
       </c>
       <c r="E16" t="n">
-        <v>1035.642531032012</v>
+        <v>1035.642651991808</v>
       </c>
       <c r="F16" t="n">
         <v>1696834</v>
@@ -781,16 +781,16 @@
         <v>44951</v>
       </c>
       <c r="B18" t="n">
-        <v>1046.595458984375</v>
+        <v>1046.595581054688</v>
       </c>
       <c r="C18" t="n">
-        <v>1057.874710377886</v>
+        <v>1057.874833763761</v>
       </c>
       <c r="D18" t="n">
-        <v>1041.002430479448</v>
+        <v>1041.002551897415</v>
       </c>
       <c r="E18" t="n">
-        <v>1057.874710377886</v>
+        <v>1057.874833763761</v>
       </c>
       <c r="F18" t="n">
         <v>2692236</v>
@@ -801,16 +801,16 @@
         <v>44953</v>
       </c>
       <c r="B19" t="n">
-        <v>1039.930419921875</v>
+        <v>1039.930541992188</v>
       </c>
       <c r="C19" t="n">
-        <v>1057.362093859573</v>
+        <v>1057.36221797607</v>
       </c>
       <c r="D19" t="n">
-        <v>1030.04942556594</v>
+        <v>1030.049546476391</v>
       </c>
       <c r="E19" t="n">
-        <v>1046.595468374805</v>
+        <v>1046.595591227482</v>
       </c>
       <c r="F19" t="n">
         <v>3864525</v>
@@ -861,16 +861,16 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>1055.311279296875</v>
+        <v>1055.311157226562</v>
       </c>
       <c r="C22" t="n">
-        <v>1059.878942175159</v>
+        <v>1059.878819576494</v>
       </c>
       <c r="D22" t="n">
-        <v>1038.858430391561</v>
+        <v>1038.858310224388</v>
       </c>
       <c r="E22" t="n">
-        <v>1059.878942175159</v>
+        <v>1059.878819576494</v>
       </c>
       <c r="F22" t="n">
         <v>2393911</v>
@@ -901,16 +901,16 @@
         <v>44960</v>
       </c>
       <c r="B24" t="n">
-        <v>1068.408203125</v>
+        <v>1068.408325195312</v>
       </c>
       <c r="C24" t="n">
-        <v>1078.196002186076</v>
+        <v>1078.196125374688</v>
       </c>
       <c r="D24" t="n">
-        <v>1061.370263998238</v>
+        <v>1061.370385264435</v>
       </c>
       <c r="E24" t="n">
-        <v>1075.725725379239</v>
+        <v>1075.72584828561</v>
       </c>
       <c r="F24" t="n">
         <v>1814055</v>
@@ -941,16 +941,16 @@
         <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>1051.72265625</v>
+        <v>1051.722534179688</v>
       </c>
       <c r="C26" t="n">
-        <v>1074.793904415023</v>
+        <v>1074.7937796669</v>
       </c>
       <c r="D26" t="n">
-        <v>1049.532075646973</v>
+        <v>1049.531953830915</v>
       </c>
       <c r="E26" t="n">
-        <v>1069.993197695316</v>
+        <v>1069.993073504396</v>
       </c>
       <c r="F26" t="n">
         <v>1931191</v>
@@ -1001,16 +1001,16 @@
         <v>44967</v>
       </c>
       <c r="B29" t="n">
-        <v>1039.977294921875</v>
+        <v>1039.977172851562</v>
       </c>
       <c r="C29" t="n">
-        <v>1053.353934966226</v>
+        <v>1053.353811325792</v>
       </c>
       <c r="D29" t="n">
-        <v>1025.388786250308</v>
+        <v>1025.388665892364</v>
       </c>
       <c r="E29" t="n">
-        <v>1049.43885966219</v>
+        <v>1049.438736481299</v>
       </c>
       <c r="F29" t="n">
         <v>3185163</v>
@@ -1021,16 +1021,16 @@
         <v>44970</v>
       </c>
       <c r="B30" t="n">
-        <v>1037.5068359375</v>
+        <v>1037.506713867188</v>
       </c>
       <c r="C30" t="n">
-        <v>1045.197250489597</v>
+        <v>1045.197127514451</v>
       </c>
       <c r="D30" t="n">
-        <v>1030.049464250618</v>
+        <v>1030.04934305772</v>
       </c>
       <c r="E30" t="n">
-        <v>1045.197250489597</v>
+        <v>1045.197127514451</v>
       </c>
       <c r="F30" t="n">
         <v>2009185</v>
@@ -1061,16 +1061,16 @@
         <v>44972</v>
       </c>
       <c r="B32" t="n">
-        <v>1056.05712890625</v>
+        <v>1056.057006835938</v>
       </c>
       <c r="C32" t="n">
-        <v>1057.641774960768</v>
+        <v>1057.641652707285</v>
       </c>
       <c r="D32" t="n">
-        <v>1043.659202278076</v>
+        <v>1043.659081640847</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.692951201938</v>
+        <v>1048.692829982856</v>
       </c>
       <c r="F32" t="n">
         <v>1648954</v>
@@ -1081,16 +1081,16 @@
         <v>44973</v>
       </c>
       <c r="B33" t="n">
-        <v>1051.62939453125</v>
+        <v>1051.629272460938</v>
       </c>
       <c r="C33" t="n">
-        <v>1074.001512532009</v>
+        <v>1074.001387864801</v>
       </c>
       <c r="D33" t="n">
-        <v>1047.76085970219</v>
+        <v>1047.760738080927</v>
       </c>
       <c r="E33" t="n">
-        <v>1061.370542061223</v>
+        <v>1061.370418860184</v>
       </c>
       <c r="F33" t="n">
         <v>2369355</v>
@@ -1101,16 +1101,16 @@
         <v>44974</v>
       </c>
       <c r="B34" t="n">
-        <v>1034.290771484375</v>
+        <v>1034.290893554688</v>
       </c>
       <c r="C34" t="n">
-        <v>1045.616562404622</v>
+        <v>1045.616685811641</v>
       </c>
       <c r="D34" t="n">
-        <v>1032.426428776127</v>
+        <v>1032.426550626404</v>
       </c>
       <c r="E34" t="n">
-        <v>1045.616562404622</v>
+        <v>1045.616685811641</v>
       </c>
       <c r="F34" t="n">
         <v>1958807</v>
@@ -1121,16 +1121,16 @@
         <v>44977</v>
       </c>
       <c r="B35" t="n">
-        <v>1040.023681640625</v>
+        <v>1040.023803710938</v>
       </c>
       <c r="C35" t="n">
-        <v>1057.734939878484</v>
+        <v>1057.735064027614</v>
       </c>
       <c r="D35" t="n">
-        <v>1032.473115360473</v>
+        <v>1032.473236544555</v>
       </c>
       <c r="E35" t="n">
-        <v>1034.290918032848</v>
+        <v>1034.291039430291</v>
       </c>
       <c r="F35" t="n">
         <v>1706036</v>
@@ -1141,16 +1141,16 @@
         <v>44978</v>
       </c>
       <c r="B36" t="n">
-        <v>1030.236083984375</v>
+        <v>1030.235961914062</v>
       </c>
       <c r="C36" t="n">
-        <v>1045.943267653468</v>
+        <v>1045.943143722047</v>
       </c>
       <c r="D36" t="n">
-        <v>1028.278546235821</v>
+        <v>1028.278424397453</v>
       </c>
       <c r="E36" t="n">
-        <v>1044.964441883948</v>
+        <v>1044.964318068506</v>
       </c>
       <c r="F36" t="n">
         <v>1313278</v>
@@ -1161,16 +1161,16 @@
         <v>44979</v>
       </c>
       <c r="B37" t="n">
-        <v>1018.49072265625</v>
+        <v>1018.490417480469</v>
       </c>
       <c r="C37" t="n">
-        <v>1030.562413805441</v>
+        <v>1030.562105012555</v>
       </c>
       <c r="D37" t="n">
-        <v>1016.113753221584</v>
+        <v>1016.113448758026</v>
       </c>
       <c r="E37" t="n">
-        <v>1020.727957375718</v>
+        <v>1020.727651529583</v>
       </c>
       <c r="F37" t="n">
         <v>2212194</v>
@@ -1181,16 +1181,16 @@
         <v>44980</v>
       </c>
       <c r="B38" t="n">
-        <v>1020.121765136719</v>
+        <v>1020.121826171875</v>
       </c>
       <c r="C38" t="n">
-        <v>1036.527959280852</v>
+        <v>1036.528021297611</v>
       </c>
       <c r="D38" t="n">
-        <v>1018.397270777247</v>
+        <v>1018.397331709224</v>
       </c>
       <c r="E38" t="n">
-        <v>1029.863024696688</v>
+        <v>1029.863086314676</v>
       </c>
       <c r="F38" t="n">
         <v>2139983</v>
@@ -1221,16 +1221,16 @@
         <v>44984</v>
       </c>
       <c r="B40" t="n">
-        <v>1010.427307128906</v>
+        <v>1010.427368164062</v>
       </c>
       <c r="C40" t="n">
-        <v>1016.066990528303</v>
+        <v>1016.067051904126</v>
       </c>
       <c r="D40" t="n">
-        <v>1003.016588815095</v>
+        <v>1003.016649402605</v>
       </c>
       <c r="E40" t="n">
-        <v>1016.066990528303</v>
+        <v>1016.067051904126</v>
       </c>
       <c r="F40" t="n">
         <v>1834553</v>
@@ -1261,16 +1261,16 @@
         <v>44986</v>
       </c>
       <c r="B42" t="n">
-        <v>1026.413940429688</v>
+        <v>1026.4140625</v>
       </c>
       <c r="C42" t="n">
-        <v>1029.117260339032</v>
+        <v>1029.117382730847</v>
       </c>
       <c r="D42" t="n">
-        <v>1004.274868932358</v>
+        <v>1004.274988369694</v>
       </c>
       <c r="E42" t="n">
-        <v>1004.274868932358</v>
+        <v>1004.274988369694</v>
       </c>
       <c r="F42" t="n">
         <v>1655100</v>
@@ -1281,16 +1281,16 @@
         <v>44987</v>
       </c>
       <c r="B43" t="n">
-        <v>1030.934936523438</v>
+        <v>1030.93505859375</v>
       </c>
       <c r="C43" t="n">
-        <v>1041.235476231526</v>
+        <v>1041.235599521498</v>
       </c>
       <c r="D43" t="n">
-        <v>1016.34654483152</v>
+        <v>1016.34666517446</v>
       </c>
       <c r="E43" t="n">
-        <v>1016.34654483152</v>
+        <v>1016.34666517446</v>
       </c>
       <c r="F43" t="n">
         <v>4074162</v>
@@ -1301,16 +1301,16 @@
         <v>44988</v>
       </c>
       <c r="B44" t="n">
-        <v>1043.099975585938</v>
+        <v>1043.099853515625</v>
       </c>
       <c r="C44" t="n">
-        <v>1053.074165761231</v>
+        <v>1053.074042523674</v>
       </c>
       <c r="D44" t="n">
-        <v>1035.689257200511</v>
+        <v>1035.689135997449</v>
       </c>
       <c r="E44" t="n">
-        <v>1039.371289346131</v>
+        <v>1039.371167712173</v>
       </c>
       <c r="F44" t="n">
         <v>3253621</v>
@@ -1341,16 +1341,16 @@
         <v>44993</v>
       </c>
       <c r="B46" t="n">
-        <v>1044.638061523438</v>
+        <v>1044.637817382812</v>
       </c>
       <c r="C46" t="n">
-        <v>1047.76081343171</v>
+        <v>1047.760568561272</v>
       </c>
       <c r="D46" t="n">
-        <v>1032.193594193175</v>
+        <v>1032.193352960925</v>
       </c>
       <c r="E46" t="n">
-        <v>1036.574754925321</v>
+        <v>1036.574512669159</v>
       </c>
       <c r="F46" t="n">
         <v>3209393</v>
@@ -1381,16 +1381,16 @@
         <v>44995</v>
       </c>
       <c r="B48" t="n">
-        <v>1040.5830078125</v>
+        <v>1040.583129882812</v>
       </c>
       <c r="C48" t="n">
-        <v>1042.307502191601</v>
+        <v>1042.307624464213</v>
       </c>
       <c r="D48" t="n">
-        <v>1030.049425188059</v>
+        <v>1030.049546022682</v>
       </c>
       <c r="E48" t="n">
-        <v>1030.049425188059</v>
+        <v>1030.049546022682</v>
       </c>
       <c r="F48" t="n">
         <v>1193681</v>
@@ -1421,16 +1421,16 @@
         <v>44999</v>
       </c>
       <c r="B50" t="n">
-        <v>1010.520690917969</v>
+        <v>1010.520629882812</v>
       </c>
       <c r="C50" t="n">
-        <v>1028.558189020095</v>
+        <v>1028.558126895479</v>
       </c>
       <c r="D50" t="n">
-        <v>993.6949476484421</v>
+        <v>993.6948876295559</v>
       </c>
       <c r="E50" t="n">
-        <v>1024.037179417877</v>
+        <v>1024.037117566329</v>
       </c>
       <c r="F50" t="n">
         <v>3683544</v>
@@ -1441,16 +1441,16 @@
         <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>1006.4189453125</v>
+        <v>1006.419006347656</v>
       </c>
       <c r="C51" t="n">
-        <v>1023.431074554956</v>
+        <v>1023.431136621828</v>
       </c>
       <c r="D51" t="n">
-        <v>1002.550410973246</v>
+        <v>1002.550471773792</v>
       </c>
       <c r="E51" t="n">
-        <v>1020.774408636829</v>
+        <v>1020.774470542585</v>
       </c>
       <c r="F51" t="n">
         <v>1528510</v>
@@ -1461,16 +1461,16 @@
         <v>45001</v>
       </c>
       <c r="B52" t="n">
-        <v>999.6607666015625</v>
+        <v>999.6607055664062</v>
       </c>
       <c r="C52" t="n">
-        <v>1013.78318796953</v>
+        <v>1013.783126072117</v>
       </c>
       <c r="D52" t="n">
-        <v>997.0972949067009</v>
+        <v>997.0972340280597</v>
       </c>
       <c r="E52" t="n">
-        <v>1010.427279445699</v>
+        <v>1010.427217753184</v>
       </c>
       <c r="F52" t="n">
         <v>1812907</v>
@@ -1481,16 +1481,16 @@
         <v>45002</v>
       </c>
       <c r="B53" t="n">
-        <v>1033.265380859375</v>
+        <v>1033.265502929688</v>
       </c>
       <c r="C53" t="n">
-        <v>1041.328686524362</v>
+        <v>1041.328809547276</v>
       </c>
       <c r="D53" t="n">
-        <v>1010.520488894255</v>
+        <v>1010.520608277479</v>
       </c>
       <c r="E53" t="n">
-        <v>1014.38890931433</v>
+        <v>1014.38902915457</v>
       </c>
       <c r="F53" t="n">
         <v>5350523</v>
@@ -1501,16 +1501,16 @@
         <v>45005</v>
       </c>
       <c r="B54" t="n">
-        <v>1016.859252929688</v>
+        <v>1016.859375</v>
       </c>
       <c r="C54" t="n">
-        <v>1033.125713797588</v>
+        <v>1033.125837820631</v>
       </c>
       <c r="D54" t="n">
-        <v>1012.571286809233</v>
+        <v>1012.57140836479</v>
       </c>
       <c r="E54" t="n">
-        <v>1030.049502346792</v>
+        <v>1030.049626000546</v>
       </c>
       <c r="F54" t="n">
         <v>2066169</v>
@@ -1521,16 +1521,16 @@
         <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>1010.380859375</v>
+        <v>1010.380676269531</v>
       </c>
       <c r="C55" t="n">
-        <v>1027.626034647085</v>
+        <v>1027.625848416373</v>
       </c>
       <c r="D55" t="n">
-        <v>1004.04204673177</v>
+        <v>1004.041864775048</v>
       </c>
       <c r="E55" t="n">
-        <v>1024.45662832547</v>
+        <v>1024.456442669131</v>
       </c>
       <c r="F55" t="n">
         <v>2421127</v>
@@ -1581,16 +1581,16 @@
         <v>45009</v>
       </c>
       <c r="B58" t="n">
-        <v>980.4113159179688</v>
+        <v>980.411376953125</v>
       </c>
       <c r="C58" t="n">
-        <v>1016.06687363973</v>
+        <v>1016.06693689461</v>
       </c>
       <c r="D58" t="n">
-        <v>976.0301556487335</v>
+        <v>976.0302164111422</v>
       </c>
       <c r="E58" t="n">
-        <v>1000.219959096725</v>
+        <v>1000.220021365061</v>
       </c>
       <c r="F58" t="n">
         <v>2688253</v>
@@ -1601,16 +1601,16 @@
         <v>45012</v>
       </c>
       <c r="B59" t="n">
-        <v>980.1784057617188</v>
+        <v>980.1783447265625</v>
       </c>
       <c r="C59" t="n">
-        <v>993.2288077404768</v>
+        <v>993.2287458926793</v>
       </c>
       <c r="D59" t="n">
-        <v>973.9329017595031</v>
+        <v>973.9328411132508</v>
       </c>
       <c r="E59" t="n">
-        <v>981.856360103749</v>
+        <v>981.8562989641074</v>
       </c>
       <c r="F59" t="n">
         <v>1459887</v>
@@ -1621,16 +1621,16 @@
         <v>45013</v>
       </c>
       <c r="B60" t="n">
-        <v>970.4837646484375</v>
+        <v>970.4837036132812</v>
       </c>
       <c r="C60" t="n">
-        <v>991.6441268177621</v>
+        <v>991.6440644517994</v>
       </c>
       <c r="D60" t="n">
-        <v>968.8524644582911</v>
+        <v>968.8524035257298</v>
       </c>
       <c r="E60" t="n">
-        <v>985.1189260571765</v>
+        <v>985.1188641015932</v>
       </c>
       <c r="F60" t="n">
         <v>2965015</v>
@@ -1641,16 +1641,16 @@
         <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>995.093017578125</v>
+        <v>995.0931396484375</v>
       </c>
       <c r="C61" t="n">
-        <v>997.4234461907201</v>
+        <v>997.4235685469116</v>
       </c>
       <c r="D61" t="n">
-        <v>971.4158401160664</v>
+        <v>971.4159592818461</v>
       </c>
       <c r="E61" t="n">
-        <v>975.0513315098067</v>
+        <v>975.0514511215604</v>
       </c>
       <c r="F61" t="n">
         <v>2478745</v>
@@ -1661,16 +1661,16 @@
         <v>45016</v>
       </c>
       <c r="B62" t="n">
-        <v>1011.639282226562</v>
+        <v>1011.639038085938</v>
       </c>
       <c r="C62" t="n">
-        <v>1022.499104697112</v>
+        <v>1022.498857935668</v>
       </c>
       <c r="D62" t="n">
-        <v>996.8643843458287</v>
+        <v>996.8641437708549</v>
       </c>
       <c r="E62" t="n">
-        <v>1009.914787433755</v>
+        <v>1009.914543709305</v>
       </c>
       <c r="F62" t="n">
         <v>3131614</v>
@@ -1681,16 +1681,16 @@
         <v>45019</v>
       </c>
       <c r="B63" t="n">
-        <v>1023.6640625</v>
+        <v>1023.664123535156</v>
       </c>
       <c r="C63" t="n">
-        <v>1024.689428298769</v>
+        <v>1024.689489395062</v>
       </c>
       <c r="D63" t="n">
-        <v>1014.202499876335</v>
+        <v>1014.202560347353</v>
       </c>
       <c r="E63" t="n">
-        <v>1016.020188620041</v>
+        <v>1016.020249199437</v>
       </c>
       <c r="F63" t="n">
         <v>1540702</v>
@@ -1701,16 +1701,16 @@
         <v>45021</v>
       </c>
       <c r="B64" t="n">
-        <v>1035.828857421875</v>
+        <v>1035.8291015625</v>
       </c>
       <c r="C64" t="n">
-        <v>1037.506811528131</v>
+        <v>1037.507056064243</v>
       </c>
       <c r="D64" t="n">
-        <v>993.8346023723926</v>
+        <v>993.8348366151434</v>
       </c>
       <c r="E64" t="n">
-        <v>1011.732248483649</v>
+        <v>1011.732486944801</v>
       </c>
       <c r="F64" t="n">
         <v>3342291</v>
@@ -1721,16 +1721,16 @@
         <v>45022</v>
       </c>
       <c r="B65" t="n">
-        <v>1017.791381835938</v>
+        <v>1017.791320800781</v>
       </c>
       <c r="C65" t="n">
-        <v>1033.824799159092</v>
+        <v>1033.82473716244</v>
       </c>
       <c r="D65" t="n">
-        <v>1011.825461757333</v>
+        <v>1011.825401079942</v>
       </c>
       <c r="E65" t="n">
-        <v>1033.824799159092</v>
+        <v>1033.82473716244</v>
       </c>
       <c r="F65" t="n">
         <v>2378264</v>
@@ -1741,16 +1741,16 @@
         <v>45026</v>
       </c>
       <c r="B66" t="n">
-        <v>1028.2783203125</v>
+        <v>1028.278442382812</v>
       </c>
       <c r="C66" t="n">
-        <v>1030.049468854143</v>
+        <v>1030.049591134714</v>
       </c>
       <c r="D66" t="n">
-        <v>1017.465154076286</v>
+        <v>1017.465274862932</v>
       </c>
       <c r="E66" t="n">
-        <v>1017.791391330953</v>
+        <v>1017.791512156328</v>
       </c>
       <c r="F66" t="n">
         <v>711625</v>
@@ -1761,16 +1761,16 @@
         <v>45027</v>
       </c>
       <c r="B67" t="n">
-        <v>1013.270202636719</v>
+        <v>1013.270446777344</v>
       </c>
       <c r="C67" t="n">
-        <v>1034.616948155047</v>
+        <v>1034.617197439027</v>
       </c>
       <c r="D67" t="n">
-        <v>1011.405860037571</v>
+        <v>1011.406103728995</v>
       </c>
       <c r="E67" t="n">
-        <v>1029.117114729473</v>
+        <v>1029.117362688305</v>
       </c>
       <c r="F67" t="n">
         <v>2318905</v>
@@ -1781,16 +1781,16 @@
         <v>45028</v>
       </c>
       <c r="B68" t="n">
-        <v>1020.26171875</v>
+        <v>1020.261840820312</v>
       </c>
       <c r="C68" t="n">
-        <v>1023.011579191157</v>
+        <v>1023.011701590479</v>
       </c>
       <c r="D68" t="n">
-        <v>1006.838426234026</v>
+        <v>1006.838546698294</v>
       </c>
       <c r="E68" t="n">
-        <v>1017.93128997259</v>
+        <v>1017.931411764076</v>
       </c>
       <c r="F68" t="n">
         <v>2715967</v>
@@ -1801,16 +1801,16 @@
         <v>45029</v>
       </c>
       <c r="B69" t="n">
-        <v>999.1480712890625</v>
+        <v>999.1480102539062</v>
       </c>
       <c r="C69" t="n">
-        <v>1015.134836420539</v>
+        <v>1015.134774408796</v>
       </c>
       <c r="D69" t="n">
-        <v>990.8983756795525</v>
+        <v>990.898315148347</v>
       </c>
       <c r="E69" t="n">
-        <v>1015.134836420539</v>
+        <v>1015.134774408796</v>
       </c>
       <c r="F69" t="n">
         <v>3071057</v>
@@ -1821,16 +1821,16 @@
         <v>45033</v>
       </c>
       <c r="B70" t="n">
-        <v>971.5091552734375</v>
+        <v>971.5092163085938</v>
       </c>
       <c r="C70" t="n">
-        <v>983.4409967693883</v>
+        <v>983.4410585541635</v>
       </c>
       <c r="D70" t="n">
-        <v>947.3193487837827</v>
+        <v>947.3194082992121</v>
       </c>
       <c r="E70" t="n">
-        <v>983.4409967693883</v>
+        <v>983.4410585541635</v>
       </c>
       <c r="F70" t="n">
         <v>9509446</v>
@@ -1841,16 +1841,16 @@
         <v>45034</v>
       </c>
       <c r="B71" t="n">
-        <v>991.6906127929688</v>
+        <v>991.6907958984375</v>
       </c>
       <c r="C71" t="n">
-        <v>994.067695598862</v>
+        <v>994.0678791432346</v>
       </c>
       <c r="D71" t="n">
-        <v>974.3055918179963</v>
+        <v>974.3057717134998</v>
       </c>
       <c r="E71" t="n">
-        <v>978.360628815163</v>
+        <v>978.3608094593873</v>
       </c>
       <c r="F71" t="n">
         <v>3686404</v>
@@ -1901,16 +1901,16 @@
         <v>45037</v>
       </c>
       <c r="B74" t="n">
-        <v>977.8013305664062</v>
+        <v>977.80126953125</v>
       </c>
       <c r="C74" t="n">
-        <v>1001.152274095723</v>
+        <v>1001.152211602982</v>
       </c>
       <c r="D74" t="n">
-        <v>967.361054416049</v>
+        <v>967.3609940325833</v>
       </c>
       <c r="E74" t="n">
-        <v>982.5088425483167</v>
+        <v>982.5087812193137</v>
       </c>
       <c r="F74" t="n">
         <v>7708194</v>
@@ -1921,16 +1921,16 @@
         <v>45040</v>
       </c>
       <c r="B75" t="n">
-        <v>982.5553588867188</v>
+        <v>982.555419921875</v>
       </c>
       <c r="C75" t="n">
-        <v>987.0763676450132</v>
+        <v>987.076428961009</v>
       </c>
       <c r="D75" t="n">
-        <v>975.05133322478</v>
+        <v>975.0513937937952</v>
       </c>
       <c r="E75" t="n">
-        <v>985.3052191382337</v>
+        <v>985.305280344208</v>
       </c>
       <c r="F75" t="n">
         <v>2033625</v>
@@ -1941,16 +1941,16 @@
         <v>45041</v>
       </c>
       <c r="B76" t="n">
-        <v>981.9960327148438</v>
+        <v>981.995849609375</v>
       </c>
       <c r="C76" t="n">
-        <v>986.9832413309057</v>
+        <v>986.9830572955095</v>
       </c>
       <c r="D76" t="n">
-        <v>973.5599488148486</v>
+        <v>973.5597672823934</v>
       </c>
       <c r="E76" t="n">
-        <v>979.1995181819346</v>
+        <v>979.1993355979112</v>
       </c>
       <c r="F76" t="n">
         <v>1237595</v>
@@ -1961,16 +1961,16 @@
         <v>45042</v>
       </c>
       <c r="B77" t="n">
-        <v>993.275390625</v>
+        <v>993.2752685546875</v>
       </c>
       <c r="C77" t="n">
-        <v>994.626993788282</v>
+        <v>994.6268715518618</v>
       </c>
       <c r="D77" t="n">
-        <v>976.9157352297277</v>
+        <v>976.9156151699635</v>
       </c>
       <c r="E77" t="n">
-        <v>983.4409357513003</v>
+        <v>983.4408148896102</v>
       </c>
       <c r="F77" t="n">
         <v>1647101</v>
@@ -1981,16 +1981,16 @@
         <v>45043</v>
       </c>
       <c r="B78" t="n">
-        <v>998.588623046875</v>
+        <v>998.5888061523438</v>
       </c>
       <c r="C78" t="n">
-        <v>1002.08426583467</v>
+        <v>1002.084449581115</v>
       </c>
       <c r="D78" t="n">
-        <v>989.0338660935677</v>
+        <v>989.0340474470354</v>
       </c>
       <c r="E78" t="n">
-        <v>993.2752915256082</v>
+        <v>993.2754736568018</v>
       </c>
       <c r="F78" t="n">
         <v>1654910</v>
@@ -2001,16 +2001,16 @@
         <v>45044</v>
       </c>
       <c r="B79" t="n">
-        <v>1008.875671386719</v>
+        <v>1008.875549316406</v>
       </c>
       <c r="C79" t="n">
-        <v>1013.284370390888</v>
+        <v>1013.284247787139</v>
       </c>
       <c r="D79" t="n">
-        <v>999.0628353678577</v>
+        <v>999.062714484863</v>
       </c>
       <c r="E79" t="n">
-        <v>1004.941023549984</v>
+        <v>1004.94090195575</v>
       </c>
       <c r="F79" t="n">
         <v>2629188</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>1012.146606445312</v>
+        <v>1012.146667480469</v>
       </c>
       <c r="C80" t="n">
-        <v>1019.020347779298</v>
+        <v>1019.02040922896</v>
       </c>
       <c r="D80" t="n">
-        <v>1008.780797153237</v>
+        <v>1008.780857985425</v>
       </c>
       <c r="E80" t="n">
-        <v>1008.875584231505</v>
+        <v>1008.87564506941</v>
       </c>
       <c r="F80" t="n">
         <v>1905168</v>
@@ -2061,16 +2061,16 @@
         <v>45050</v>
       </c>
       <c r="B82" t="n">
-        <v>1011.435546875</v>
+        <v>1011.435485839844</v>
       </c>
       <c r="C82" t="n">
-        <v>1012.52577189625</v>
+        <v>1012.525710795304</v>
       </c>
       <c r="D82" t="n">
-        <v>993.8956548982964</v>
+        <v>993.8955949215863</v>
       </c>
       <c r="E82" t="n">
-        <v>1001.243447483132</v>
+        <v>1001.243387063018</v>
       </c>
       <c r="F82" t="n">
         <v>1403672</v>
@@ -2081,16 +2081,16 @@
         <v>45051</v>
       </c>
       <c r="B83" t="n">
-        <v>1000.769287109375</v>
+        <v>1000.769470214844</v>
       </c>
       <c r="C83" t="n">
-        <v>1014.42186570477</v>
+        <v>1014.422051308179</v>
       </c>
       <c r="D83" t="n">
-        <v>997.4982651972522</v>
+        <v>997.4984477042393</v>
       </c>
       <c r="E83" t="n">
-        <v>1011.435436471482</v>
+        <v>1011.43562152848</v>
       </c>
       <c r="F83" t="n">
         <v>1641673</v>
@@ -2101,16 +2101,16 @@
         <v>45054</v>
       </c>
       <c r="B84" t="n">
-        <v>1019.921081542969</v>
+        <v>1019.921203613281</v>
       </c>
       <c r="C84" t="n">
-        <v>1021.580260620543</v>
+        <v>1021.580382889436</v>
       </c>
       <c r="D84" t="n">
-        <v>1000.247958194592</v>
+        <v>1000.248077910306</v>
       </c>
       <c r="E84" t="n">
-        <v>1003.092265184719</v>
+        <v>1003.092385240857</v>
       </c>
       <c r="F84" t="n">
         <v>1389075</v>
@@ -2161,16 +2161,16 @@
         <v>45057</v>
       </c>
       <c r="B87" t="n">
-        <v>1031.630004882812</v>
+        <v>1031.630126953125</v>
       </c>
       <c r="C87" t="n">
-        <v>1035.896464882936</v>
+        <v>1035.896587458089</v>
       </c>
       <c r="D87" t="n">
-        <v>1023.997851434784</v>
+        <v>1023.997972602002</v>
       </c>
       <c r="E87" t="n">
-        <v>1025.988842954481</v>
+        <v>1025.988964357288</v>
       </c>
       <c r="F87" t="n">
         <v>2653108</v>
@@ -2181,16 +2181,16 @@
         <v>45058</v>
       </c>
       <c r="B88" t="n">
-        <v>1038.64599609375</v>
+        <v>1038.646118164062</v>
       </c>
       <c r="C88" t="n">
-        <v>1046.13602688034</v>
+        <v>1046.136149830943</v>
       </c>
       <c r="D88" t="n">
-        <v>1021.532704496645</v>
+        <v>1021.532824555661</v>
       </c>
       <c r="E88" t="n">
-        <v>1029.639024881618</v>
+        <v>1029.639145893356</v>
       </c>
       <c r="F88" t="n">
         <v>1585037</v>
@@ -2201,16 +2201,16 @@
         <v>45061</v>
       </c>
       <c r="B89" t="n">
-        <v>1042.675415039062</v>
+        <v>1042.675537109375</v>
       </c>
       <c r="C89" t="n">
-        <v>1048.553602501083</v>
+        <v>1048.553725259579</v>
       </c>
       <c r="D89" t="n">
-        <v>1036.086150913001</v>
+        <v>1036.086272211881</v>
       </c>
       <c r="E89" t="n">
-        <v>1041.916886970032</v>
+        <v>1041.91700895154</v>
       </c>
       <c r="F89" t="n">
         <v>1523466</v>
@@ -2221,16 +2221,16 @@
         <v>45062</v>
       </c>
       <c r="B90" t="n">
-        <v>1034.095092773438</v>
+        <v>1034.094970703125</v>
       </c>
       <c r="C90" t="n">
-        <v>1047.937478412237</v>
+        <v>1047.937354707893</v>
       </c>
       <c r="D90" t="n">
-        <v>1031.630050034726</v>
+        <v>1031.629928255401</v>
       </c>
       <c r="E90" t="n">
-        <v>1043.102064279022</v>
+        <v>1043.101941145477</v>
       </c>
       <c r="F90" t="n">
         <v>1166324</v>
@@ -2241,16 +2241,16 @@
         <v>45063</v>
       </c>
       <c r="B91" t="n">
-        <v>1018.783386230469</v>
+        <v>1018.783264160156</v>
       </c>
       <c r="C91" t="n">
-        <v>1037.176478505566</v>
+        <v>1037.176354231399</v>
       </c>
       <c r="D91" t="n">
-        <v>1007.548281238791</v>
+        <v>1007.548160514666</v>
       </c>
       <c r="E91" t="n">
-        <v>1033.905571821372</v>
+        <v>1033.905447939124</v>
       </c>
       <c r="F91" t="n">
         <v>3602382</v>
@@ -2321,16 +2321,16 @@
         <v>45069</v>
       </c>
       <c r="B95" t="n">
-        <v>1049.881103515625</v>
+        <v>1049.880859375</v>
       </c>
       <c r="C95" t="n">
-        <v>1072.635559685674</v>
+        <v>1072.6353102537</v>
       </c>
       <c r="D95" t="n">
-        <v>1046.704983822252</v>
+        <v>1046.704740420206</v>
       </c>
       <c r="E95" t="n">
-        <v>1061.874621268951</v>
+        <v>1061.874374339339</v>
       </c>
       <c r="F95" t="n">
         <v>2138096</v>
@@ -2341,16 +2341,16 @@
         <v>45070</v>
       </c>
       <c r="B96" t="n">
-        <v>1054.2421875</v>
+        <v>1054.242309570312</v>
       </c>
       <c r="C96" t="n">
-        <v>1057.133945483492</v>
+        <v>1057.13406788864</v>
       </c>
       <c r="D96" t="n">
-        <v>1041.016208198093</v>
+        <v>1041.016328736974</v>
       </c>
       <c r="E96" t="n">
-        <v>1042.011761795067</v>
+        <v>1042.011882449223</v>
       </c>
       <c r="F96" t="n">
         <v>1302744</v>
@@ -2361,16 +2361,16 @@
         <v>45071</v>
       </c>
       <c r="B97" t="n">
-        <v>1058.082153320312</v>
+        <v>1058.08203125</v>
       </c>
       <c r="C97" t="n">
-        <v>1060.215383468136</v>
+        <v>1060.215261151714</v>
       </c>
       <c r="D97" t="n">
-        <v>1045.804274985787</v>
+        <v>1045.804154331966</v>
       </c>
       <c r="E97" t="n">
-        <v>1051.63501146839</v>
+        <v>1051.63489014188</v>
       </c>
       <c r="F97" t="n">
         <v>1124803</v>
@@ -2381,16 +2381,16 @@
         <v>45072</v>
       </c>
       <c r="B98" t="n">
-        <v>1080.078125</v>
+        <v>1080.078002929688</v>
       </c>
       <c r="C98" t="n">
-        <v>1081.168465823459</v>
+        <v>1081.168343629916</v>
       </c>
       <c r="D98" t="n">
-        <v>1056.185992645349</v>
+        <v>1056.185873275323</v>
       </c>
       <c r="E98" t="n">
-        <v>1057.134094972679</v>
+        <v>1057.133975495498</v>
       </c>
       <c r="F98" t="n">
         <v>1635167</v>
@@ -2421,16 +2421,16 @@
         <v>45076</v>
       </c>
       <c r="B100" t="n">
-        <v>1076.90185546875</v>
+        <v>1076.901977539062</v>
       </c>
       <c r="C100" t="n">
-        <v>1084.628911508076</v>
+        <v>1084.629034454275</v>
       </c>
       <c r="D100" t="n">
-        <v>1069.50672778591</v>
+        <v>1069.506849017961</v>
       </c>
       <c r="E100" t="n">
-        <v>1070.407378577463</v>
+        <v>1070.407499911606</v>
       </c>
       <c r="F100" t="n">
         <v>1983735</v>
@@ -2441,16 +2441,16 @@
         <v>45077</v>
       </c>
       <c r="B101" t="n">
-        <v>1085.671752929688</v>
+        <v>1085.671875</v>
       </c>
       <c r="C101" t="n">
-        <v>1093.493595696811</v>
+        <v>1093.493718646592</v>
       </c>
       <c r="D101" t="n">
-        <v>1073.346424933008</v>
+        <v>1073.346545617491</v>
       </c>
       <c r="E101" t="n">
-        <v>1075.906370188779</v>
+        <v>1075.906491161095</v>
       </c>
       <c r="F101" t="n">
         <v>5967930</v>
@@ -2461,16 +2461,16 @@
         <v>45078</v>
       </c>
       <c r="B102" t="n">
-        <v>1082.637939453125</v>
+        <v>1082.638061523438</v>
       </c>
       <c r="C102" t="n">
-        <v>1095.200293767037</v>
+        <v>1095.200417253788</v>
       </c>
       <c r="D102" t="n">
-        <v>1078.608505050549</v>
+        <v>1078.608626666532</v>
       </c>
       <c r="E102" t="n">
-        <v>1088.421339801559</v>
+        <v>1088.421462523966</v>
       </c>
       <c r="F102" t="n">
         <v>1445692</v>
@@ -2541,16 +2541,16 @@
         <v>45084</v>
       </c>
       <c r="B106" t="n">
-        <v>1070.454956054688</v>
+        <v>1070.455078125</v>
       </c>
       <c r="C106" t="n">
-        <v>1074.958442013115</v>
+        <v>1074.958564596987</v>
       </c>
       <c r="D106" t="n">
-        <v>1058.27174882114</v>
+        <v>1058.27186950213</v>
       </c>
       <c r="E106" t="n">
-        <v>1074.958442013115</v>
+        <v>1074.958564596987</v>
       </c>
       <c r="F106" t="n">
         <v>2459039</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>1052.156616210938</v>
+        <v>1052.156494140625</v>
       </c>
       <c r="C108" t="n">
-        <v>1072.303791786051</v>
+        <v>1072.303667378281</v>
       </c>
       <c r="D108" t="n">
-        <v>1048.553780872856</v>
+        <v>1048.553659220541</v>
       </c>
       <c r="E108" t="n">
-        <v>1070.50237411701</v>
+        <v>1070.502249918239</v>
       </c>
       <c r="F108" t="n">
         <v>1824218</v>
@@ -2621,16 +2621,16 @@
         <v>45090</v>
       </c>
       <c r="B110" t="n">
-        <v>1072.588134765625</v>
+        <v>1072.588012695312</v>
       </c>
       <c r="C110" t="n">
-        <v>1085.52963804743</v>
+        <v>1085.529514504257</v>
       </c>
       <c r="D110" t="n">
-        <v>1070.69193024256</v>
+        <v>1070.691808388053</v>
       </c>
       <c r="E110" t="n">
-        <v>1085.52963804743</v>
+        <v>1085.529514504257</v>
       </c>
       <c r="F110" t="n">
         <v>2014656</v>
@@ -2641,16 +2641,16 @@
         <v>45091</v>
       </c>
       <c r="B111" t="n">
-        <v>1076.90185546875</v>
+        <v>1076.901977539062</v>
       </c>
       <c r="C111" t="n">
-        <v>1079.319562361007</v>
+        <v>1079.319684705374</v>
       </c>
       <c r="D111" t="n">
-        <v>1067.610523395162</v>
+        <v>1067.610644412272</v>
       </c>
       <c r="E111" t="n">
-        <v>1078.940298335831</v>
+        <v>1078.940420637207</v>
       </c>
       <c r="F111" t="n">
         <v>836964</v>
@@ -2681,16 +2681,16 @@
         <v>45093</v>
       </c>
       <c r="B113" t="n">
-        <v>1088.610961914062</v>
+        <v>1088.611083984375</v>
       </c>
       <c r="C113" t="n">
-        <v>1094.347026845689</v>
+        <v>1094.347149559209</v>
       </c>
       <c r="D113" t="n">
-        <v>1073.678351411295</v>
+        <v>1073.678471807154</v>
       </c>
       <c r="E113" t="n">
-        <v>1090.317592265577</v>
+        <v>1090.317714527261</v>
       </c>
       <c r="F113" t="n">
         <v>2909817</v>
@@ -2701,16 +2701,16 @@
         <v>45096</v>
       </c>
       <c r="B114" t="n">
-        <v>1078.513793945312</v>
+        <v>1078.513671875</v>
       </c>
       <c r="C114" t="n">
-        <v>1094.015243062447</v>
+        <v>1094.015119237621</v>
       </c>
       <c r="D114" t="n">
-        <v>1076.522686570976</v>
+        <v>1076.522564726025</v>
       </c>
       <c r="E114" t="n">
-        <v>1088.610990630186</v>
+        <v>1088.610867417034</v>
       </c>
       <c r="F114" t="n">
         <v>1278608</v>
@@ -2821,16 +2821,16 @@
         <v>45104</v>
       </c>
       <c r="B120" t="n">
-        <v>1109.279541015625</v>
+        <v>1109.27978515625</v>
       </c>
       <c r="C120" t="n">
-        <v>1113.49854938612</v>
+        <v>1113.498794455304</v>
       </c>
       <c r="D120" t="n">
-        <v>1099.988093437853</v>
+        <v>1099.988335533529</v>
       </c>
       <c r="E120" t="n">
-        <v>1106.4352345002</v>
+        <v>1106.435478014824</v>
       </c>
       <c r="F120" t="n">
         <v>1504039</v>
@@ -2841,16 +2841,16 @@
         <v>45105</v>
       </c>
       <c r="B121" t="n">
-        <v>1109.516723632812</v>
+        <v>1109.516845703125</v>
       </c>
       <c r="C121" t="n">
-        <v>1113.024655871069</v>
+        <v>1113.024778327329</v>
       </c>
       <c r="D121" t="n">
-        <v>1105.961339985196</v>
+        <v>1105.961461664341</v>
       </c>
       <c r="E121" t="n">
-        <v>1112.550604718054</v>
+        <v>1112.550727122157</v>
       </c>
       <c r="F121" t="n">
         <v>1424076</v>
@@ -2901,16 +2901,16 @@
         <v>45111</v>
       </c>
       <c r="B124" t="n">
-        <v>1128.810546875</v>
+        <v>1128.810668945312</v>
       </c>
       <c r="C124" t="n">
-        <v>1131.086015484864</v>
+        <v>1131.086137801248</v>
       </c>
       <c r="D124" t="n">
-        <v>1117.385983888094</v>
+        <v>1117.386104722947</v>
       </c>
       <c r="E124" t="n">
-        <v>1120.656890446865</v>
+        <v>1120.657011635436</v>
       </c>
       <c r="F124" t="n">
         <v>1094468</v>
@@ -2921,16 +2921,16 @@
         <v>45112</v>
       </c>
       <c r="B125" t="n">
-        <v>1132.792602539062</v>
+        <v>1132.792724609375</v>
       </c>
       <c r="C125" t="n">
-        <v>1140.187730569282</v>
+        <v>1140.187853436497</v>
       </c>
       <c r="D125" t="n">
-        <v>1125.966196970625</v>
+        <v>1125.966318305321</v>
       </c>
       <c r="E125" t="n">
-        <v>1132.034074453079</v>
+        <v>1132.034196441653</v>
       </c>
       <c r="F125" t="n">
         <v>1653610</v>
@@ -2941,16 +2941,16 @@
         <v>45113</v>
       </c>
       <c r="B126" t="n">
-        <v>1119.376953125</v>
+        <v>1119.377075195312</v>
       </c>
       <c r="C126" t="n">
-        <v>1135.82650414061</v>
+        <v>1135.826628004779</v>
       </c>
       <c r="D126" t="n">
-        <v>1113.972700817805</v>
+        <v>1113.972822298773</v>
       </c>
       <c r="E126" t="n">
-        <v>1132.792623211585</v>
+        <v>1132.792746744903</v>
       </c>
       <c r="F126" t="n">
         <v>2334220</v>
@@ -2981,16 +2981,16 @@
         <v>45117</v>
       </c>
       <c r="B128" t="n">
-        <v>1066.140991210938</v>
+        <v>1066.14111328125</v>
       </c>
       <c r="C128" t="n">
-        <v>1101.600038876675</v>
+        <v>1101.600165006954</v>
       </c>
       <c r="D128" t="n">
-        <v>1061.874531041574</v>
+        <v>1061.874652623388</v>
       </c>
       <c r="E128" t="n">
-        <v>1099.798621435916</v>
+        <v>1099.798747359938</v>
       </c>
       <c r="F128" t="n">
         <v>3960400</v>
@@ -3021,16 +3021,16 @@
         <v>45119</v>
       </c>
       <c r="B130" t="n">
-        <v>1052.914916992188</v>
+        <v>1052.915161132812</v>
       </c>
       <c r="C130" t="n">
-        <v>1066.14089604255</v>
+        <v>1066.141143249899</v>
       </c>
       <c r="D130" t="n">
-        <v>1045.235196784747</v>
+        <v>1045.235439144667</v>
       </c>
       <c r="E130" t="n">
-        <v>1061.58995930741</v>
+        <v>1061.590205459527</v>
       </c>
       <c r="F130" t="n">
         <v>3824027</v>
@@ -3061,16 +3061,16 @@
         <v>45121</v>
       </c>
       <c r="B132" t="n">
-        <v>1091.218383789062</v>
+        <v>1091.218139648438</v>
       </c>
       <c r="C132" t="n">
-        <v>1097.049236550769</v>
+        <v>1097.048991105595</v>
       </c>
       <c r="D132" t="n">
-        <v>1053.863242748205</v>
+        <v>1053.863006965125</v>
       </c>
       <c r="E132" t="n">
-        <v>1056.375621457463</v>
+        <v>1056.375385112284</v>
       </c>
       <c r="F132" t="n">
         <v>6605038</v>
@@ -3081,16 +3081,16 @@
         <v>45124</v>
       </c>
       <c r="B133" t="n">
-        <v>1093.873046875</v>
+        <v>1093.872924804688</v>
       </c>
       <c r="C133" t="n">
-        <v>1111.175914138678</v>
+        <v>1111.175790137459</v>
       </c>
       <c r="D133" t="n">
-        <v>1084.297236632268</v>
+        <v>1084.297115630564</v>
       </c>
       <c r="E133" t="n">
-        <v>1092.166416412469</v>
+        <v>1092.166294532607</v>
       </c>
       <c r="F133" t="n">
         <v>3159479</v>
@@ -3241,16 +3241,16 @@
         <v>45134</v>
       </c>
       <c r="B141" t="n">
-        <v>1068.501831054688</v>
+        <v>1068.502075195312</v>
       </c>
       <c r="C141" t="n">
-        <v>1073.6179171822</v>
+        <v>1073.618162491793</v>
       </c>
       <c r="D141" t="n">
-        <v>1060.469037692319</v>
+        <v>1060.469279997541</v>
       </c>
       <c r="E141" t="n">
-        <v>1066.254591361331</v>
+        <v>1066.254834988487</v>
       </c>
       <c r="F141" t="n">
         <v>1769815</v>
@@ -3261,16 +3261,16 @@
         <v>45135</v>
       </c>
       <c r="B142" t="n">
-        <v>1055.305297851562</v>
+        <v>1055.305419921875</v>
       </c>
       <c r="C142" t="n">
-        <v>1069.601670445679</v>
+        <v>1069.601794169695</v>
       </c>
       <c r="D142" t="n">
-        <v>1049.471882882401</v>
+        <v>1049.472004277945</v>
       </c>
       <c r="E142" t="n">
-        <v>1065.346261230802</v>
+        <v>1065.346384462583</v>
       </c>
       <c r="F142" t="n">
         <v>2031899</v>
@@ -3301,16 +3301,16 @@
         <v>45139</v>
       </c>
       <c r="B144" t="n">
-        <v>1088.727416992188</v>
+        <v>1088.727294921875</v>
       </c>
       <c r="C144" t="n">
-        <v>1092.074405098883</v>
+        <v>1092.074282653299</v>
       </c>
       <c r="D144" t="n">
-        <v>1063.290330728039</v>
+        <v>1063.290211509784</v>
       </c>
       <c r="E144" t="n">
-        <v>1071.036194142512</v>
+        <v>1071.036074055775</v>
       </c>
       <c r="F144" t="n">
         <v>2710536</v>
@@ -3361,16 +3361,16 @@
         <v>45142</v>
       </c>
       <c r="B147" t="n">
-        <v>1094.32177734375</v>
+        <v>1094.321655273438</v>
       </c>
       <c r="C147" t="n">
-        <v>1101.972036797172</v>
+        <v>1101.971913873482</v>
       </c>
       <c r="D147" t="n">
-        <v>1076.774018069201</v>
+        <v>1076.773897956321</v>
       </c>
       <c r="E147" t="n">
-        <v>1081.02942819669</v>
+        <v>1081.029307609123</v>
       </c>
       <c r="F147" t="n">
         <v>3315303</v>
@@ -3401,16 +3401,16 @@
         <v>45146</v>
       </c>
       <c r="B149" t="n">
-        <v>1091.452758789062</v>
+        <v>1091.452880859375</v>
       </c>
       <c r="C149" t="n">
-        <v>1106.322994961844</v>
+        <v>1106.323118695274</v>
       </c>
       <c r="D149" t="n">
-        <v>1087.292954210717</v>
+        <v>1087.293075815789</v>
       </c>
       <c r="E149" t="n">
-        <v>1104.410430398589</v>
+        <v>1104.410553918114</v>
       </c>
       <c r="F149" t="n">
         <v>1667697</v>
@@ -3501,16 +3501,16 @@
         <v>45154</v>
       </c>
       <c r="B154" t="n">
-        <v>1125.687622070312</v>
+        <v>1125.687744140625</v>
       </c>
       <c r="C154" t="n">
-        <v>1134.389766797643</v>
+        <v>1134.389889811622</v>
       </c>
       <c r="D154" t="n">
-        <v>1118.945785824961</v>
+        <v>1118.945907164184</v>
       </c>
       <c r="E154" t="n">
-        <v>1124.348803635261</v>
+        <v>1124.348925560392</v>
       </c>
       <c r="F154" t="n">
         <v>2567226</v>
@@ -3521,16 +3521,16 @@
         <v>45155</v>
       </c>
       <c r="B155" t="n">
-        <v>1125.257446289062</v>
+        <v>1125.25732421875</v>
       </c>
       <c r="C155" t="n">
-        <v>1129.321646463428</v>
+        <v>1129.321523952222</v>
       </c>
       <c r="D155" t="n">
-        <v>1113.064845765966</v>
+        <v>1113.064725018333</v>
       </c>
       <c r="E155" t="n">
-        <v>1125.400911994896</v>
+        <v>1125.40078990902</v>
       </c>
       <c r="F155" t="n">
         <v>2331256</v>
@@ -3581,16 +3581,16 @@
         <v>45160</v>
       </c>
       <c r="B158" t="n">
-        <v>1127.934936523438</v>
+        <v>1127.934814453125</v>
       </c>
       <c r="C158" t="n">
-        <v>1135.107053542451</v>
+        <v>1135.106930695938</v>
       </c>
       <c r="D158" t="n">
-        <v>1124.731414268347</v>
+        <v>1124.731292544734</v>
       </c>
       <c r="E158" t="n">
-        <v>1130.325642196442</v>
+        <v>1130.325519867396</v>
       </c>
       <c r="F158" t="n">
         <v>1805887</v>
@@ -3601,16 +3601,16 @@
         <v>45161</v>
       </c>
       <c r="B159" t="n">
-        <v>1130.8037109375</v>
+        <v>1130.803833007812</v>
       </c>
       <c r="C159" t="n">
-        <v>1142.757238537262</v>
+        <v>1142.757361897958</v>
       </c>
       <c r="D159" t="n">
-        <v>1127.122047783507</v>
+        <v>1127.122169456384</v>
       </c>
       <c r="E159" t="n">
-        <v>1140.796813317434</v>
+        <v>1140.796936466502</v>
       </c>
       <c r="F159" t="n">
         <v>2347850</v>
@@ -3641,16 +3641,16 @@
         <v>45163</v>
       </c>
       <c r="B161" t="n">
-        <v>1103.501831054688</v>
+        <v>1103.501953125</v>
       </c>
       <c r="C161" t="n">
-        <v>1119.61527999434</v>
+        <v>1119.615403847136</v>
       </c>
       <c r="D161" t="n">
-        <v>1099.724562944997</v>
+        <v>1099.724684597465</v>
       </c>
       <c r="E161" t="n">
-        <v>1114.068796374714</v>
+        <v>1114.068919613953</v>
       </c>
       <c r="F161" t="n">
         <v>2105159</v>
@@ -3701,16 +3701,16 @@
         <v>45168</v>
       </c>
       <c r="B164" t="n">
-        <v>1119.328369140625</v>
+        <v>1119.328491210938</v>
       </c>
       <c r="C164" t="n">
-        <v>1123.775104932045</v>
+        <v>1123.775227487304</v>
       </c>
       <c r="D164" t="n">
-        <v>1110.865294608765</v>
+        <v>1110.865415756123</v>
       </c>
       <c r="E164" t="n">
-        <v>1115.025099032865</v>
+        <v>1115.025220633877</v>
       </c>
       <c r="F164" t="n">
         <v>1497356</v>
@@ -3721,16 +3721,16 @@
         <v>45169</v>
       </c>
       <c r="B165" t="n">
-        <v>1120.906372070312</v>
+        <v>1120.90625</v>
       </c>
       <c r="C165" t="n">
-        <v>1136.159028752807</v>
+        <v>1136.158905021431</v>
       </c>
       <c r="D165" t="n">
-        <v>1114.929607424557</v>
+        <v>1114.929486005133</v>
       </c>
       <c r="E165" t="n">
-        <v>1127.935023946984</v>
+        <v>1127.934901111229</v>
       </c>
       <c r="F165" t="n">
         <v>4483967</v>
@@ -3741,16 +3741,16 @@
         <v>45170</v>
       </c>
       <c r="B166" t="n">
-        <v>1133.959716796875</v>
+        <v>1133.959594726562</v>
       </c>
       <c r="C166" t="n">
-        <v>1136.063491383739</v>
+        <v>1136.063369086956</v>
       </c>
       <c r="D166" t="n">
-        <v>1119.902295474387</v>
+        <v>1119.90217491735</v>
       </c>
       <c r="E166" t="n">
-        <v>1121.719255381419</v>
+        <v>1121.719134628787</v>
       </c>
       <c r="F166" t="n">
         <v>1669640</v>
@@ -3781,16 +3781,16 @@
         <v>45174</v>
       </c>
       <c r="B168" t="n">
-        <v>1181.53466796875</v>
+        <v>1181.534545898438</v>
       </c>
       <c r="C168" t="n">
-        <v>1187.415710853783</v>
+        <v>1187.41558817587</v>
       </c>
       <c r="D168" t="n">
-        <v>1171.637052563109</v>
+        <v>1171.636931515369</v>
       </c>
       <c r="E168" t="n">
-        <v>1182.682160060054</v>
+        <v>1182.682037871188</v>
       </c>
       <c r="F168" t="n">
         <v>2842400</v>
@@ -3821,16 +3821,16 @@
         <v>45176</v>
       </c>
       <c r="B170" t="n">
-        <v>1199.177978515625</v>
+        <v>1199.177856445312</v>
       </c>
       <c r="C170" t="n">
-        <v>1202.046825354179</v>
+        <v>1202.046702991832</v>
       </c>
       <c r="D170" t="n">
-        <v>1176.514135184518</v>
+        <v>1176.514015421271</v>
       </c>
       <c r="E170" t="n">
-        <v>1183.877462043336</v>
+        <v>1183.87734153054</v>
       </c>
       <c r="F170" t="n">
         <v>2582004</v>
@@ -3841,16 +3841,16 @@
         <v>45177</v>
       </c>
       <c r="B171" t="n">
-        <v>1206.876220703125</v>
+        <v>1206.876098632812</v>
       </c>
       <c r="C171" t="n">
-        <v>1214.048338531319</v>
+        <v>1214.048215735578</v>
       </c>
       <c r="D171" t="n">
-        <v>1199.465032280658</v>
+        <v>1199.464910959955</v>
       </c>
       <c r="E171" t="n">
-        <v>1203.959512759517</v>
+        <v>1203.959390984217</v>
       </c>
       <c r="F171" t="n">
         <v>2280777</v>
@@ -3861,16 +3861,16 @@
         <v>45180</v>
       </c>
       <c r="B172" t="n">
-        <v>1225.5234375</v>
+        <v>1225.523681640625</v>
       </c>
       <c r="C172" t="n">
-        <v>1228.153213415663</v>
+        <v>1228.153458080174</v>
       </c>
       <c r="D172" t="n">
-        <v>1214.860868167943</v>
+        <v>1214.861110184442</v>
       </c>
       <c r="E172" t="n">
-        <v>1220.742026744249</v>
+        <v>1220.742269932353</v>
       </c>
       <c r="F172" t="n">
         <v>2691836</v>
@@ -3881,16 +3881,16 @@
         <v>45181</v>
       </c>
       <c r="B173" t="n">
-        <v>1226.336303710938</v>
+        <v>1226.33642578125</v>
       </c>
       <c r="C173" t="n">
-        <v>1235.277518840035</v>
+        <v>1235.277641800362</v>
       </c>
       <c r="D173" t="n">
-        <v>1210.175111354414</v>
+        <v>1210.175231816031</v>
       </c>
       <c r="E173" t="n">
-        <v>1228.822614058018</v>
+        <v>1228.82273637582</v>
       </c>
       <c r="F173" t="n">
         <v>2140769</v>
@@ -3901,16 +3901,16 @@
         <v>45182</v>
       </c>
       <c r="B174" t="n">
-        <v>1219.4990234375</v>
+        <v>1219.499145507812</v>
       </c>
       <c r="C174" t="n">
-        <v>1226.336465343404</v>
+        <v>1226.336588098135</v>
       </c>
       <c r="D174" t="n">
-        <v>1210.749016899661</v>
+        <v>1210.749138094109</v>
       </c>
       <c r="E174" t="n">
-        <v>1225.95392907028</v>
+        <v>1225.954051786721</v>
       </c>
       <c r="F174" t="n">
         <v>2275523</v>
@@ -3961,16 +3961,16 @@
         <v>45187</v>
       </c>
       <c r="B177" t="n">
-        <v>1247.948486328125</v>
+        <v>1247.948364257812</v>
       </c>
       <c r="C177" t="n">
-        <v>1253.973111921115</v>
+        <v>1253.972989261493</v>
       </c>
       <c r="D177" t="n">
-        <v>1233.317319450113</v>
+        <v>1233.317198810975</v>
       </c>
       <c r="E177" t="n">
-        <v>1245.079639233118</v>
+        <v>1245.079517443427</v>
       </c>
       <c r="F177" t="n">
         <v>2761885</v>
@@ -4001,16 +4001,16 @@
         <v>45190</v>
       </c>
       <c r="B179" t="n">
-        <v>1222.128784179688</v>
+        <v>1222.128662109375</v>
       </c>
       <c r="C179" t="n">
-        <v>1228.822760305867</v>
+        <v>1228.822637566938</v>
       </c>
       <c r="D179" t="n">
-        <v>1204.246351793222</v>
+        <v>1204.246231509067</v>
       </c>
       <c r="E179" t="n">
-        <v>1227.866478002127</v>
+        <v>1227.866355358715</v>
       </c>
       <c r="F179" t="n">
         <v>3112700</v>
@@ -4021,16 +4021,16 @@
         <v>45191</v>
       </c>
       <c r="B180" t="n">
-        <v>1218.016845703125</v>
+        <v>1218.016723632812</v>
       </c>
       <c r="C180" t="n">
-        <v>1227.484064806106</v>
+        <v>1227.483941786984</v>
       </c>
       <c r="D180" t="n">
-        <v>1209.792840413127</v>
+        <v>1209.792719167029</v>
       </c>
       <c r="E180" t="n">
-        <v>1216.821492703599</v>
+        <v>1216.821370753086</v>
       </c>
       <c r="F180" t="n">
         <v>1321467</v>
@@ -4041,16 +4041,16 @@
         <v>45194</v>
       </c>
       <c r="B181" t="n">
-        <v>1208.214721679688</v>
+        <v>1208.21484375</v>
       </c>
       <c r="C181" t="n">
-        <v>1224.041239081593</v>
+        <v>1224.041362750916</v>
       </c>
       <c r="D181" t="n">
-        <v>1201.664211832899</v>
+        <v>1201.66433324139</v>
       </c>
       <c r="E181" t="n">
-        <v>1214.478416901268</v>
+        <v>1214.478539604424</v>
       </c>
       <c r="F181" t="n">
         <v>1246703</v>
@@ -4061,16 +4061,16 @@
         <v>45195</v>
       </c>
       <c r="B182" t="n">
-        <v>1206.302124023438</v>
+        <v>1206.30224609375</v>
       </c>
       <c r="C182" t="n">
-        <v>1213.474240461169</v>
+        <v>1213.474363257256</v>
       </c>
       <c r="D182" t="n">
-        <v>1202.142319836286</v>
+        <v>1202.142441485652</v>
       </c>
       <c r="E182" t="n">
-        <v>1208.740690305733</v>
+        <v>1208.740812622813</v>
       </c>
       <c r="F182" t="n">
         <v>903152</v>
@@ -4081,16 +4081,16 @@
         <v>45196</v>
       </c>
       <c r="B183" t="n">
-        <v>1205.967651367188</v>
+        <v>1205.967529296875</v>
       </c>
       <c r="C183" t="n">
-        <v>1212.231347469413</v>
+        <v>1212.231224765078</v>
       </c>
       <c r="D183" t="n">
-        <v>1198.508719058046</v>
+        <v>1198.508597742741</v>
       </c>
       <c r="E183" t="n">
-        <v>1203.481340597474</v>
+        <v>1203.48121877883</v>
       </c>
       <c r="F183" t="n">
         <v>1670373</v>
@@ -4101,16 +4101,16 @@
         <v>45197</v>
       </c>
       <c r="B184" t="n">
-        <v>1187.60693359375</v>
+        <v>1187.607055664062</v>
       </c>
       <c r="C184" t="n">
-        <v>1210.653312160981</v>
+        <v>1210.653436600157</v>
       </c>
       <c r="D184" t="n">
-        <v>1184.403411446219</v>
+        <v>1184.403533187252</v>
       </c>
       <c r="E184" t="n">
-        <v>1205.967505852486</v>
+        <v>1205.967629810023</v>
       </c>
       <c r="F184" t="n">
         <v>1807072</v>
@@ -4121,16 +4121,16 @@
         <v>45198</v>
       </c>
       <c r="B185" t="n">
-        <v>1180.817260742188</v>
+        <v>1180.8173828125</v>
       </c>
       <c r="C185" t="n">
-        <v>1195.065771574019</v>
+        <v>1195.065895117311</v>
       </c>
       <c r="D185" t="n">
-        <v>1173.597283723109</v>
+        <v>1173.597405047036</v>
       </c>
       <c r="E185" t="n">
-        <v>1181.10407535069</v>
+        <v>1181.104197450653</v>
       </c>
       <c r="F185" t="n">
         <v>2338327</v>
@@ -4161,16 +4161,16 @@
         <v>45203</v>
       </c>
       <c r="B187" t="n">
-        <v>1185.359619140625</v>
+        <v>1185.359741210938</v>
       </c>
       <c r="C187" t="n">
-        <v>1190.38010056965</v>
+        <v>1190.38022315698</v>
       </c>
       <c r="D187" t="n">
-        <v>1171.445666772434</v>
+        <v>1171.445787409864</v>
       </c>
       <c r="E187" t="n">
-        <v>1180.052206365048</v>
+        <v>1180.052327888794</v>
       </c>
       <c r="F187" t="n">
         <v>2253785</v>
@@ -4181,16 +4181,16 @@
         <v>45204</v>
       </c>
       <c r="B188" t="n">
-        <v>1181.43896484375</v>
+        <v>1181.438842773438</v>
       </c>
       <c r="C188" t="n">
-        <v>1199.130188052653</v>
+        <v>1199.130064154422</v>
       </c>
       <c r="D188" t="n">
-        <v>1174.123498363232</v>
+        <v>1174.123377048778</v>
       </c>
       <c r="E188" t="n">
-        <v>1194.396637184825</v>
+        <v>1194.396513775682</v>
       </c>
       <c r="F188" t="n">
         <v>2995200</v>
@@ -4201,16 +4201,16 @@
         <v>45205</v>
       </c>
       <c r="B189" t="n">
-        <v>1183.590576171875</v>
+        <v>1183.590454101562</v>
       </c>
       <c r="C189" t="n">
-        <v>1201.090589253354</v>
+        <v>1201.090465378167</v>
       </c>
       <c r="D189" t="n">
-        <v>1176.322853914849</v>
+        <v>1176.322732594097</v>
       </c>
       <c r="E189" t="n">
-        <v>1197.265459988216</v>
+        <v>1197.265336507536</v>
       </c>
       <c r="F189" t="n">
         <v>2497711</v>
@@ -4221,16 +4221,16 @@
         <v>45208</v>
       </c>
       <c r="B190" t="n">
-        <v>1194.970336914062</v>
+        <v>1194.97021484375</v>
       </c>
       <c r="C190" t="n">
-        <v>1211.274996797712</v>
+        <v>1211.274873061823</v>
       </c>
       <c r="D190" t="n">
-        <v>1177.326975199394</v>
+        <v>1177.326854931411</v>
       </c>
       <c r="E190" t="n">
-        <v>1181.964921000598</v>
+        <v>1181.964800258833</v>
       </c>
       <c r="F190" t="n">
         <v>3430211</v>
@@ -4301,16 +4301,16 @@
         <v>45212</v>
       </c>
       <c r="B194" t="n">
-        <v>1200.994995117188</v>
+        <v>1200.994873046875</v>
       </c>
       <c r="C194" t="n">
-        <v>1211.131564413788</v>
+        <v>1211.131441313184</v>
       </c>
       <c r="D194" t="n">
-        <v>1155.715050382603</v>
+        <v>1155.714932914589</v>
       </c>
       <c r="E194" t="n">
-        <v>1158.057895384996</v>
+        <v>1158.057777678852</v>
       </c>
       <c r="F194" t="n">
         <v>5740821</v>
@@ -4341,16 +4341,16 @@
         <v>45216</v>
       </c>
       <c r="B196" t="n">
-        <v>1221.316040039062</v>
+        <v>1221.31591796875</v>
       </c>
       <c r="C196" t="n">
-        <v>1223.085139059221</v>
+        <v>1223.085016812087</v>
       </c>
       <c r="D196" t="n">
-        <v>1215.434880175348</v>
+        <v>1215.434758692856</v>
       </c>
       <c r="E196" t="n">
-        <v>1222.98953416991</v>
+        <v>1222.989411932332</v>
       </c>
       <c r="F196" t="n">
         <v>1687345</v>
@@ -4361,16 +4361,16 @@
         <v>45217</v>
       </c>
       <c r="B197" t="n">
-        <v>1213.95263671875</v>
+        <v>1213.952514648438</v>
       </c>
       <c r="C197" t="n">
-        <v>1225.475886244254</v>
+        <v>1225.475763015208</v>
       </c>
       <c r="D197" t="n">
-        <v>1211.992327853931</v>
+        <v>1211.992205980739</v>
       </c>
       <c r="E197" t="n">
-        <v>1222.128897869806</v>
+        <v>1222.128774977321</v>
       </c>
       <c r="F197" t="n">
         <v>1743126</v>
@@ -4381,16 +4381,16 @@
         <v>45218</v>
       </c>
       <c r="B198" t="n">
-        <v>1211.9443359375</v>
+        <v>1211.944213867188</v>
       </c>
       <c r="C198" t="n">
-        <v>1219.020848224704</v>
+        <v>1219.020725441627</v>
       </c>
       <c r="D198" t="n">
-        <v>1209.601491022302</v>
+        <v>1209.601369187968</v>
       </c>
       <c r="E198" t="n">
-        <v>1211.418450718618</v>
+        <v>1211.418328701274</v>
       </c>
       <c r="F198" t="n">
         <v>2279726</v>
@@ -4521,16 +4521,16 @@
         <v>45230</v>
       </c>
       <c r="B205" t="n">
-        <v>1231.880249023438</v>
+        <v>1231.88037109375</v>
       </c>
       <c r="C205" t="n">
-        <v>1235.597105515239</v>
+        <v>1235.597227953865</v>
       </c>
       <c r="D205" t="n">
-        <v>1213.247530405448</v>
+        <v>1213.247650629394</v>
       </c>
       <c r="E205" t="n">
-        <v>1228.018555452831</v>
+        <v>1228.018677140478</v>
       </c>
       <c r="F205" t="n">
         <v>2525870</v>
@@ -4561,16 +4561,16 @@
         <v>45232</v>
       </c>
       <c r="B207" t="n">
-        <v>1229.370239257812</v>
+        <v>1229.370361328125</v>
       </c>
       <c r="C207" t="n">
-        <v>1230.914893200941</v>
+        <v>1230.915015424629</v>
       </c>
       <c r="D207" t="n">
-        <v>1221.260658744463</v>
+        <v>1221.260780009535</v>
       </c>
       <c r="E207" t="n">
-        <v>1222.22608219011</v>
+        <v>1222.226203551044</v>
       </c>
       <c r="F207" t="n">
         <v>1368604</v>
@@ -4601,16 +4601,16 @@
         <v>45236</v>
       </c>
       <c r="B209" t="n">
-        <v>1225.798095703125</v>
+        <v>1225.798217773438</v>
       </c>
       <c r="C209" t="n">
-        <v>1235.259292563238</v>
+        <v>1235.259415575738</v>
       </c>
       <c r="D209" t="n">
-        <v>1221.405489756998</v>
+        <v>1221.405611389875</v>
       </c>
       <c r="E209" t="n">
-        <v>1232.121666380487</v>
+        <v>1232.121789080528</v>
       </c>
       <c r="F209" t="n">
         <v>1175823</v>
@@ -4641,16 +4641,16 @@
         <v>45238</v>
       </c>
       <c r="B211" t="n">
-        <v>1223.819091796875</v>
+        <v>1223.818969726562</v>
       </c>
       <c r="C211" t="n">
-        <v>1236.51443406452</v>
+        <v>1236.514310727905</v>
       </c>
       <c r="D211" t="n">
-        <v>1222.129600715427</v>
+        <v>1222.129478813634</v>
       </c>
       <c r="E211" t="n">
-        <v>1235.742048144611</v>
+        <v>1235.741924885039</v>
       </c>
       <c r="F211" t="n">
         <v>937671</v>
@@ -4701,16 +4701,16 @@
         <v>45243</v>
       </c>
       <c r="B214" t="n">
-        <v>1217.399047851562</v>
+        <v>1217.39892578125</v>
       </c>
       <c r="C214" t="n">
-        <v>1219.909125411243</v>
+        <v>1219.909003089242</v>
       </c>
       <c r="D214" t="n">
-        <v>1209.965333953748</v>
+        <v>1209.965212628824</v>
       </c>
       <c r="E214" t="n">
-        <v>1216.433624340181</v>
+        <v>1216.433502366673</v>
       </c>
       <c r="F214" t="n">
         <v>730991</v>
@@ -4741,16 +4741,16 @@
         <v>45246</v>
       </c>
       <c r="B216" t="n">
-        <v>1265.718505859375</v>
+        <v>1265.718383789062</v>
       </c>
       <c r="C216" t="n">
-        <v>1272.37983361945</v>
+        <v>1272.379710906696</v>
       </c>
       <c r="D216" t="n">
-        <v>1233.811212572818</v>
+        <v>1233.811093579757</v>
       </c>
       <c r="E216" t="n">
-        <v>1239.410715919931</v>
+        <v>1239.410596386834</v>
       </c>
       <c r="F216" t="n">
         <v>3936945</v>
@@ -4781,16 +4781,16 @@
         <v>45250</v>
       </c>
       <c r="B218" t="n">
-        <v>1279.572265625</v>
+        <v>1279.572387695312</v>
       </c>
       <c r="C218" t="n">
-        <v>1285.654362657049</v>
+        <v>1285.654485307589</v>
       </c>
       <c r="D218" t="n">
-        <v>1268.566414712834</v>
+        <v>1268.566535733196</v>
       </c>
       <c r="E218" t="n">
-        <v>1269.483519851539</v>
+        <v>1269.483640959392</v>
       </c>
       <c r="F218" t="n">
         <v>2831858</v>
@@ -4881,16 +4881,16 @@
         <v>45258</v>
       </c>
       <c r="B223" t="n">
-        <v>1271.124877929688</v>
+        <v>1271.124755859375</v>
       </c>
       <c r="C223" t="n">
-        <v>1274.262504312302</v>
+        <v>1274.262381940673</v>
       </c>
       <c r="D223" t="n">
-        <v>1250.513109724576</v>
+        <v>1250.51298963368</v>
       </c>
       <c r="E223" t="n">
-        <v>1263.884201662116</v>
+        <v>1263.884080287149</v>
       </c>
       <c r="F223" t="n">
         <v>2152951</v>
@@ -4901,16 +4901,16 @@
         <v>45259</v>
       </c>
       <c r="B224" t="n">
-        <v>1287.82666015625</v>
+        <v>1287.826538085938</v>
       </c>
       <c r="C224" t="n">
-        <v>1292.509058518042</v>
+        <v>1292.508936003895</v>
       </c>
       <c r="D224" t="n">
-        <v>1275.807184446012</v>
+        <v>1275.807063514999</v>
       </c>
       <c r="E224" t="n">
-        <v>1278.220743251244</v>
+        <v>1278.220622091456</v>
       </c>
       <c r="F224" t="n">
         <v>1835524</v>
@@ -4941,16 +4941,16 @@
         <v>45261</v>
       </c>
       <c r="B226" t="n">
-        <v>1290.4814453125</v>
+        <v>1290.481567382812</v>
       </c>
       <c r="C226" t="n">
-        <v>1302.35620058216</v>
+        <v>1302.35632377574</v>
       </c>
       <c r="D226" t="n">
-        <v>1282.082308653157</v>
+        <v>1282.082429928971</v>
       </c>
       <c r="E226" t="n">
-        <v>1299.459930306589</v>
+        <v>1299.460053226201</v>
       </c>
       <c r="F226" t="n">
         <v>1854324</v>
@@ -4961,16 +4961,16 @@
         <v>45264</v>
       </c>
       <c r="B227" t="n">
-        <v>1291.688354492188</v>
+        <v>1291.688232421875</v>
       </c>
       <c r="C227" t="n">
-        <v>1303.321755075459</v>
+        <v>1303.321631905739</v>
       </c>
       <c r="D227" t="n">
-        <v>1284.978708152175</v>
+        <v>1284.978586715954</v>
       </c>
       <c r="E227" t="n">
-        <v>1303.321755075459</v>
+        <v>1303.321631905739</v>
       </c>
       <c r="F227" t="n">
         <v>1547057</v>
@@ -4981,16 +4981,16 @@
         <v>45265</v>
       </c>
       <c r="B228" t="n">
-        <v>1271.993530273438</v>
+        <v>1271.99365234375</v>
       </c>
       <c r="C228" t="n">
-        <v>1300.425199636443</v>
+        <v>1300.425324435278</v>
       </c>
       <c r="D228" t="n">
-        <v>1263.063364648614</v>
+        <v>1263.063485861919</v>
       </c>
       <c r="E228" t="n">
-        <v>1300.425199636443</v>
+        <v>1300.425324435278</v>
       </c>
       <c r="F228" t="n">
         <v>3932040</v>
@@ -5001,16 +5001,16 @@
         <v>45266</v>
       </c>
       <c r="B229" t="n">
-        <v>1283.57861328125</v>
+        <v>1283.578735351562</v>
       </c>
       <c r="C229" t="n">
-        <v>1293.618921459507</v>
+        <v>1293.619044484668</v>
       </c>
       <c r="D229" t="n">
-        <v>1273.924380148675</v>
+        <v>1273.924501300855</v>
       </c>
       <c r="E229" t="n">
-        <v>1279.185890066118</v>
+        <v>1279.186011718676</v>
       </c>
       <c r="F229" t="n">
         <v>2077245</v>
@@ -5021,16 +5021,16 @@
         <v>45267</v>
       </c>
       <c r="B230" t="n">
-        <v>1282.082275390625</v>
+        <v>1282.082397460938</v>
       </c>
       <c r="C230" t="n">
-        <v>1290.771085991917</v>
+        <v>1290.771208889513</v>
       </c>
       <c r="D230" t="n">
-        <v>1279.523879810337</v>
+        <v>1279.524001637059</v>
       </c>
       <c r="E230" t="n">
-        <v>1284.978545591056</v>
+        <v>1284.978667937129</v>
       </c>
       <c r="F230" t="n">
         <v>1985003</v>
@@ -5041,16 +5041,16 @@
         <v>45268</v>
       </c>
       <c r="B231" t="n">
-        <v>1316.93408203125</v>
+        <v>1316.934204101562</v>
       </c>
       <c r="C231" t="n">
-        <v>1322.581785547162</v>
+        <v>1322.581908140976</v>
       </c>
       <c r="D231" t="n">
-        <v>1283.047743086239</v>
+        <v>1283.047862015532</v>
       </c>
       <c r="E231" t="n">
-        <v>1286.909436820133</v>
+        <v>1286.909556107377</v>
       </c>
       <c r="F231" t="n">
         <v>4509751</v>
@@ -5101,16 +5101,16 @@
         <v>45273</v>
       </c>
       <c r="B234" t="n">
-        <v>1321.857666015625</v>
+        <v>1321.857788085938</v>
       </c>
       <c r="C234" t="n">
-        <v>1334.987518474419</v>
+        <v>1334.987641757242</v>
       </c>
       <c r="D234" t="n">
-        <v>1310.127866039602</v>
+        <v>1310.127987026696</v>
       </c>
       <c r="E234" t="n">
-        <v>1331.65673705013</v>
+        <v>1331.656860025363</v>
       </c>
       <c r="F234" t="n">
         <v>1896931</v>
@@ -5141,16 +5141,16 @@
         <v>45275</v>
       </c>
       <c r="B236" t="n">
-        <v>1439.735961914062</v>
+        <v>1439.736083984375</v>
       </c>
       <c r="C236" t="n">
-        <v>1445.238828147958</v>
+        <v>1445.23895068484</v>
       </c>
       <c r="D236" t="n">
-        <v>1372.832073230725</v>
+        <v>1372.832189628485</v>
       </c>
       <c r="E236" t="n">
-        <v>1372.832073230725</v>
+        <v>1372.832189628485</v>
       </c>
       <c r="F236" t="n">
         <v>7374290</v>
@@ -5221,16 +5221,16 @@
         <v>45281</v>
       </c>
       <c r="B240" t="n">
-        <v>1372.880615234375</v>
+        <v>1372.880493164062</v>
       </c>
       <c r="C240" t="n">
-        <v>1397.016204139381</v>
+        <v>1397.016079923041</v>
       </c>
       <c r="D240" t="n">
-        <v>1370.997968590051</v>
+        <v>1370.997846687135</v>
       </c>
       <c r="E240" t="n">
-        <v>1372.011710463884</v>
+        <v>1372.01158847083</v>
       </c>
       <c r="F240" t="n">
         <v>2841508</v>
@@ -5241,16 +5241,16 @@
         <v>45282</v>
       </c>
       <c r="B241" t="n">
-        <v>1412.124877929688</v>
+        <v>1412.124755859375</v>
       </c>
       <c r="C241" t="n">
-        <v>1416.614120684374</v>
+        <v>1416.613998225991</v>
       </c>
       <c r="D241" t="n">
-        <v>1373.797612889798</v>
+        <v>1373.797494132663</v>
       </c>
       <c r="E241" t="n">
-        <v>1381.521000734575</v>
+        <v>1381.520881309797</v>
       </c>
       <c r="F241" t="n">
         <v>2303438</v>
@@ -5281,16 +5281,16 @@
         <v>45287</v>
       </c>
       <c r="B243" t="n">
-        <v>1421.151611328125</v>
+        <v>1421.151733398438</v>
       </c>
       <c r="C243" t="n">
-        <v>1424.964986747695</v>
+        <v>1424.965109145558</v>
       </c>
       <c r="D243" t="n">
-        <v>1407.152971553165</v>
+        <v>1407.153092421059</v>
       </c>
       <c r="E243" t="n">
-        <v>1414.779722392304</v>
+        <v>1414.779843915301</v>
       </c>
       <c r="F243" t="n">
         <v>1402329</v>

--- a/src/data/raw/HCLTECH.NS_data.xlsx
+++ b/src/data/raw/HCLTECH.NS_data.xlsx
@@ -461,16 +461,16 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>962.0120239257812</v>
+        <v>962.011962890625</v>
       </c>
       <c r="C2" t="n">
-        <v>966.1230567838038</v>
+        <v>966.1229954878218</v>
       </c>
       <c r="D2" t="n">
-        <v>954.7601191116034</v>
+        <v>954.7600585365465</v>
       </c>
       <c r="E2" t="n">
-        <v>959.8410873313555</v>
+        <v>959.841026433935</v>
       </c>
       <c r="F2" t="n">
         <v>2484372</v>
@@ -481,16 +481,16 @@
         <v>44930</v>
       </c>
       <c r="B3" t="n">
-        <v>957.6239013671875</v>
+        <v>957.623779296875</v>
       </c>
       <c r="C3" t="n">
-        <v>962.6125108295306</v>
+        <v>962.6123881233095</v>
       </c>
       <c r="D3" t="n">
-        <v>952.9124807300008</v>
+        <v>952.9123592602627</v>
       </c>
       <c r="E3" t="n">
-        <v>957.2543538570015</v>
+        <v>957.254231833796</v>
       </c>
       <c r="F3" t="n">
         <v>1219170</v>
@@ -501,16 +501,16 @@
         <v>44931</v>
       </c>
       <c r="B4" t="n">
-        <v>964.5525512695312</v>
+        <v>964.552490234375</v>
       </c>
       <c r="C4" t="n">
-        <v>969.8183498680704</v>
+        <v>969.8182884997037</v>
       </c>
       <c r="D4" t="n">
-        <v>954.3906143745413</v>
+        <v>954.3905539824142</v>
       </c>
       <c r="E4" t="n">
-        <v>962.4278503080777</v>
+        <v>962.4277894073687</v>
       </c>
       <c r="F4" t="n">
         <v>2294943</v>
@@ -541,16 +541,16 @@
         <v>44935</v>
       </c>
       <c r="B6" t="n">
-        <v>986.1234130859375</v>
+        <v>986.1234741210938</v>
       </c>
       <c r="C6" t="n">
-        <v>989.402991920682</v>
+        <v>989.4030531588246</v>
       </c>
       <c r="D6" t="n">
-        <v>960.8110458056007</v>
+        <v>960.8111052740724</v>
       </c>
       <c r="E6" t="n">
-        <v>965.3376359447467</v>
+        <v>965.3376956933873</v>
       </c>
       <c r="F6" t="n">
         <v>4562242</v>
@@ -601,16 +601,16 @@
         <v>44938</v>
       </c>
       <c r="B9" t="n">
-        <v>990.0035400390625</v>
+        <v>990.003662109375</v>
       </c>
       <c r="C9" t="n">
-        <v>992.636382716079</v>
+        <v>992.6365051110286</v>
       </c>
       <c r="D9" t="n">
-        <v>980.1649158322566</v>
+        <v>980.1650366894381</v>
       </c>
       <c r="E9" t="n">
-        <v>980.1649158322566</v>
+        <v>980.1650366894381</v>
       </c>
       <c r="F9" t="n">
         <v>4748542</v>
@@ -621,16 +621,16 @@
         <v>44939</v>
       </c>
       <c r="B10" t="n">
-        <v>995.6849975585938</v>
+        <v>995.6848754882812</v>
       </c>
       <c r="C10" t="n">
-        <v>1001.412589029891</v>
+        <v>1001.41246625738</v>
       </c>
       <c r="D10" t="n">
-        <v>961.6886579152367</v>
+        <v>961.6885400128526</v>
       </c>
       <c r="E10" t="n">
-        <v>964.3677362886096</v>
+        <v>964.3676180577722</v>
       </c>
       <c r="F10" t="n">
         <v>8253765</v>
@@ -641,16 +641,16 @@
         <v>44942</v>
       </c>
       <c r="B11" t="n">
-        <v>1010.37353515625</v>
+        <v>1010.373596191406</v>
       </c>
       <c r="C11" t="n">
-        <v>1016.60926859941</v>
+        <v>1016.609330011257</v>
       </c>
       <c r="D11" t="n">
-        <v>996.3778680887646</v>
+        <v>996.3779282784635</v>
       </c>
       <c r="E11" t="n">
-        <v>1004.184037439213</v>
+        <v>1004.184098100471</v>
       </c>
       <c r="F11" t="n">
         <v>4508538</v>
@@ -661,16 +661,16 @@
         <v>44943</v>
       </c>
       <c r="B12" t="n">
-        <v>1026.401977539062</v>
+        <v>1026.401733398438</v>
       </c>
       <c r="C12" t="n">
-        <v>1029.08094371474</v>
+        <v>1029.080698936894</v>
       </c>
       <c r="D12" t="n">
-        <v>1011.574741021534</v>
+        <v>1011.574500407725</v>
       </c>
       <c r="E12" t="n">
-        <v>1014.253819967298</v>
+        <v>1014.253578716241</v>
       </c>
       <c r="F12" t="n">
         <v>4390338</v>
@@ -701,16 +701,16 @@
         <v>44945</v>
       </c>
       <c r="B14" t="n">
-        <v>1036.015502929688</v>
+        <v>1036.015380859375</v>
       </c>
       <c r="C14" t="n">
-        <v>1037.833191970214</v>
+        <v>1037.833069685729</v>
       </c>
       <c r="D14" t="n">
-        <v>1024.223509842125</v>
+        <v>1024.223389161224</v>
       </c>
       <c r="E14" t="n">
-        <v>1027.579304727198</v>
+        <v>1027.579183650896</v>
       </c>
       <c r="F14" t="n">
         <v>2298287</v>
@@ -741,16 +741,16 @@
         <v>44949</v>
       </c>
       <c r="B16" t="n">
-        <v>1045.150756835938</v>
+        <v>1045.150634765625</v>
       </c>
       <c r="C16" t="n">
-        <v>1046.735516836945</v>
+        <v>1046.735394581538</v>
       </c>
       <c r="D16" t="n">
-        <v>1032.985985678638</v>
+        <v>1032.985865029132</v>
       </c>
       <c r="E16" t="n">
-        <v>1035.642651991808</v>
+        <v>1035.642531032012</v>
       </c>
       <c r="F16" t="n">
         <v>1696834</v>
@@ -761,16 +761,16 @@
         <v>44950</v>
       </c>
       <c r="B17" t="n">
-        <v>1060.67138671875</v>
+        <v>1060.671264648438</v>
       </c>
       <c r="C17" t="n">
-        <v>1066.1245675863</v>
+        <v>1066.124444888393</v>
       </c>
       <c r="D17" t="n">
-        <v>1045.150707487667</v>
+        <v>1045.150587203595</v>
       </c>
       <c r="E17" t="n">
-        <v>1049.531982093666</v>
+        <v>1049.531861305363</v>
       </c>
       <c r="F17" t="n">
         <v>4861107</v>
@@ -821,16 +821,16 @@
         <v>44956</v>
       </c>
       <c r="B20" t="n">
-        <v>1057.781616210938</v>
+        <v>1057.78173828125</v>
       </c>
       <c r="C20" t="n">
-        <v>1062.628862524931</v>
+        <v>1062.628985154626</v>
       </c>
       <c r="D20" t="n">
-        <v>1030.795296634102</v>
+        <v>1030.795415590135</v>
       </c>
       <c r="E20" t="n">
-        <v>1039.9305091167</v>
+        <v>1039.930629126956</v>
       </c>
       <c r="F20" t="n">
         <v>3508427</v>
@@ -861,16 +861,16 @@
         <v>44958</v>
       </c>
       <c r="B22" t="n">
-        <v>1055.311157226562</v>
+        <v>1055.311401367188</v>
       </c>
       <c r="C22" t="n">
-        <v>1059.878819576494</v>
+        <v>1059.879064773824</v>
       </c>
       <c r="D22" t="n">
-        <v>1038.858310224388</v>
+        <v>1038.858550558734</v>
       </c>
       <c r="E22" t="n">
-        <v>1059.878819576494</v>
+        <v>1059.879064773824</v>
       </c>
       <c r="F22" t="n">
         <v>2393911</v>
@@ -941,16 +941,16 @@
         <v>44964</v>
       </c>
       <c r="B26" t="n">
-        <v>1051.722534179688</v>
+        <v>1051.722412109375</v>
       </c>
       <c r="C26" t="n">
-        <v>1074.7937796669</v>
+        <v>1074.793654918776</v>
       </c>
       <c r="D26" t="n">
-        <v>1049.531953830915</v>
+        <v>1049.531832014857</v>
       </c>
       <c r="E26" t="n">
-        <v>1069.993073504396</v>
+        <v>1069.992949313476</v>
       </c>
       <c r="F26" t="n">
         <v>1931191</v>
@@ -981,16 +981,16 @@
         <v>44966</v>
       </c>
       <c r="B28" t="n">
-        <v>1068.594604492188</v>
+        <v>1068.5947265625</v>
       </c>
       <c r="C28" t="n">
-        <v>1073.861395378653</v>
+        <v>1073.861518050615</v>
       </c>
       <c r="D28" t="n">
-        <v>1060.810996476482</v>
+        <v>1060.811117657639</v>
       </c>
       <c r="E28" t="n">
-        <v>1066.404024577413</v>
+        <v>1066.404146397485</v>
       </c>
       <c r="F28" t="n">
         <v>1501083</v>
@@ -1041,16 +1041,16 @@
         <v>44971</v>
       </c>
       <c r="B31" t="n">
-        <v>1049.112426757812</v>
+        <v>1049.112548828125</v>
       </c>
       <c r="C31" t="n">
-        <v>1064.912802824574</v>
+        <v>1064.912926733352</v>
       </c>
       <c r="D31" t="n">
-        <v>1042.167794217721</v>
+        <v>1042.167915479985</v>
       </c>
       <c r="E31" t="n">
-        <v>1044.964308871257</v>
+        <v>1044.964430458911</v>
       </c>
       <c r="F31" t="n">
         <v>3938046</v>
@@ -1061,16 +1061,16 @@
         <v>44972</v>
       </c>
       <c r="B32" t="n">
-        <v>1056.057006835938</v>
+        <v>1056.05712890625</v>
       </c>
       <c r="C32" t="n">
-        <v>1057.641652707285</v>
+        <v>1057.641774960768</v>
       </c>
       <c r="D32" t="n">
-        <v>1043.659081640847</v>
+        <v>1043.659202278076</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.692829982856</v>
+        <v>1048.692951201938</v>
       </c>
       <c r="F32" t="n">
         <v>1648954</v>
@@ -1081,16 +1081,16 @@
         <v>44973</v>
       </c>
       <c r="B33" t="n">
-        <v>1051.629272460938</v>
+        <v>1051.62939453125</v>
       </c>
       <c r="C33" t="n">
-        <v>1074.001387864801</v>
+        <v>1074.001512532009</v>
       </c>
       <c r="D33" t="n">
-        <v>1047.760738080927</v>
+        <v>1047.76085970219</v>
       </c>
       <c r="E33" t="n">
-        <v>1061.370418860184</v>
+        <v>1061.370542061223</v>
       </c>
       <c r="F33" t="n">
         <v>2369355</v>
@@ -1121,16 +1121,16 @@
         <v>44977</v>
       </c>
       <c r="B35" t="n">
-        <v>1040.023803710938</v>
+        <v>1040.023681640625</v>
       </c>
       <c r="C35" t="n">
-        <v>1057.735064027614</v>
+        <v>1057.734939878484</v>
       </c>
       <c r="D35" t="n">
-        <v>1032.473236544555</v>
+        <v>1032.473115360473</v>
       </c>
       <c r="E35" t="n">
-        <v>1034.291039430291</v>
+        <v>1034.290918032848</v>
       </c>
       <c r="F35" t="n">
         <v>1706036</v>
@@ -1161,16 +1161,16 @@
         <v>44979</v>
       </c>
       <c r="B37" t="n">
-        <v>1018.490417480469</v>
+        <v>1018.490600585938</v>
       </c>
       <c r="C37" t="n">
-        <v>1030.562105012555</v>
+        <v>1030.562290288286</v>
       </c>
       <c r="D37" t="n">
-        <v>1016.113448758026</v>
+        <v>1016.113631436161</v>
       </c>
       <c r="E37" t="n">
-        <v>1020.727651529583</v>
+        <v>1020.727835037264</v>
       </c>
       <c r="F37" t="n">
         <v>2212194</v>
@@ -1181,16 +1181,16 @@
         <v>44980</v>
       </c>
       <c r="B38" t="n">
-        <v>1020.121826171875</v>
+        <v>1020.122009277344</v>
       </c>
       <c r="C38" t="n">
-        <v>1036.528021297611</v>
+        <v>1036.528207347889</v>
       </c>
       <c r="D38" t="n">
-        <v>1018.397331709224</v>
+        <v>1018.397514505157</v>
       </c>
       <c r="E38" t="n">
-        <v>1029.863086314676</v>
+        <v>1029.86327116864</v>
       </c>
       <c r="F38" t="n">
         <v>2139983</v>
@@ -1201,16 +1201,16 @@
         <v>44981</v>
       </c>
       <c r="B39" t="n">
-        <v>1020.587890625</v>
+        <v>1020.588012695312</v>
       </c>
       <c r="C39" t="n">
-        <v>1029.583367887496</v>
+        <v>1029.583491033738</v>
       </c>
       <c r="D39" t="n">
-        <v>1008.60951023474</v>
+        <v>1008.609630872345</v>
       </c>
       <c r="E39" t="n">
-        <v>1022.592082003244</v>
+        <v>1022.592204313274</v>
       </c>
       <c r="F39" t="n">
         <v>1684570</v>
@@ -1221,16 +1221,16 @@
         <v>44984</v>
       </c>
       <c r="B40" t="n">
-        <v>1010.427368164062</v>
+        <v>1010.427429199219</v>
       </c>
       <c r="C40" t="n">
-        <v>1016.067051904126</v>
+        <v>1016.067113279949</v>
       </c>
       <c r="D40" t="n">
-        <v>1003.016649402605</v>
+        <v>1003.016709990115</v>
       </c>
       <c r="E40" t="n">
-        <v>1016.067051904126</v>
+        <v>1016.067113279949</v>
       </c>
       <c r="F40" t="n">
         <v>1834553</v>
@@ -1281,16 +1281,16 @@
         <v>44987</v>
       </c>
       <c r="B43" t="n">
-        <v>1030.93505859375</v>
+        <v>1030.934936523438</v>
       </c>
       <c r="C43" t="n">
-        <v>1041.235599521498</v>
+        <v>1041.235476231526</v>
       </c>
       <c r="D43" t="n">
-        <v>1016.34666517446</v>
+        <v>1016.34654483152</v>
       </c>
       <c r="E43" t="n">
-        <v>1016.34666517446</v>
+        <v>1016.34654483152</v>
       </c>
       <c r="F43" t="n">
         <v>4074162</v>
@@ -1321,16 +1321,16 @@
         <v>44991</v>
       </c>
       <c r="B45" t="n">
-        <v>1050.277587890625</v>
+        <v>1050.277709960938</v>
       </c>
       <c r="C45" t="n">
-        <v>1070.132886439176</v>
+        <v>1070.133010817205</v>
       </c>
       <c r="D45" t="n">
-        <v>1047.108295809851</v>
+        <v>1047.108417511807</v>
       </c>
       <c r="E45" t="n">
-        <v>1052.421627865705</v>
+        <v>1052.421750185213</v>
       </c>
       <c r="F45" t="n">
         <v>4091674</v>
@@ -1341,16 +1341,16 @@
         <v>44993</v>
       </c>
       <c r="B46" t="n">
-        <v>1044.637817382812</v>
+        <v>1044.637939453125</v>
       </c>
       <c r="C46" t="n">
-        <v>1047.760568561272</v>
+        <v>1047.760690996491</v>
       </c>
       <c r="D46" t="n">
-        <v>1032.193352960925</v>
+        <v>1032.19347357705</v>
       </c>
       <c r="E46" t="n">
-        <v>1036.574512669159</v>
+        <v>1036.57463379724</v>
       </c>
       <c r="F46" t="n">
         <v>3209393</v>
@@ -1401,16 +1401,16 @@
         <v>44998</v>
       </c>
       <c r="B49" t="n">
-        <v>1024.083618164062</v>
+        <v>1024.08349609375</v>
       </c>
       <c r="C49" t="n">
-        <v>1056.709621652389</v>
+        <v>1056.709495693071</v>
       </c>
       <c r="D49" t="n">
-        <v>1020.7278234205</v>
+        <v>1020.727701750197</v>
       </c>
       <c r="E49" t="n">
-        <v>1044.917629062086</v>
+        <v>1044.917504508368</v>
       </c>
       <c r="F49" t="n">
         <v>3028387</v>
@@ -1421,16 +1421,16 @@
         <v>44999</v>
       </c>
       <c r="B50" t="n">
-        <v>1010.520629882812</v>
+        <v>1010.520568847656</v>
       </c>
       <c r="C50" t="n">
-        <v>1028.558126895479</v>
+        <v>1028.558064770863</v>
       </c>
       <c r="D50" t="n">
-        <v>993.6948876295559</v>
+        <v>993.6948276106694</v>
       </c>
       <c r="E50" t="n">
-        <v>1024.037117566329</v>
+        <v>1024.037055714781</v>
       </c>
       <c r="F50" t="n">
         <v>3683544</v>
@@ -1441,16 +1441,16 @@
         <v>45000</v>
       </c>
       <c r="B51" t="n">
-        <v>1006.419006347656</v>
+        <v>1006.4189453125</v>
       </c>
       <c r="C51" t="n">
-        <v>1023.431136621828</v>
+        <v>1023.431074554956</v>
       </c>
       <c r="D51" t="n">
-        <v>1002.550471773792</v>
+        <v>1002.550410973246</v>
       </c>
       <c r="E51" t="n">
-        <v>1020.774470542585</v>
+        <v>1020.774408636829</v>
       </c>
       <c r="F51" t="n">
         <v>1528510</v>
@@ -1481,16 +1481,16 @@
         <v>45002</v>
       </c>
       <c r="B53" t="n">
-        <v>1033.265502929688</v>
+        <v>1033.265380859375</v>
       </c>
       <c r="C53" t="n">
-        <v>1041.328809547276</v>
+        <v>1041.328686524362</v>
       </c>
       <c r="D53" t="n">
-        <v>1010.520608277479</v>
+        <v>1010.520488894255</v>
       </c>
       <c r="E53" t="n">
-        <v>1014.38902915457</v>
+        <v>1014.38890931433</v>
       </c>
       <c r="F53" t="n">
         <v>5350523</v>
@@ -1501,16 +1501,16 @@
         <v>45005</v>
       </c>
       <c r="B54" t="n">
-        <v>1016.859375</v>
+        <v>1016.859252929688</v>
       </c>
       <c r="C54" t="n">
-        <v>1033.125837820631</v>
+        <v>1033.125713797588</v>
       </c>
       <c r="D54" t="n">
-        <v>1012.57140836479</v>
+        <v>1012.571286809233</v>
       </c>
       <c r="E54" t="n">
-        <v>1030.049626000546</v>
+        <v>1030.049502346792</v>
       </c>
       <c r="F54" t="n">
         <v>2066169</v>
@@ -1521,16 +1521,16 @@
         <v>45006</v>
       </c>
       <c r="B55" t="n">
-        <v>1010.380676269531</v>
+        <v>1010.380737304688</v>
       </c>
       <c r="C55" t="n">
-        <v>1027.625848416373</v>
+        <v>1027.625910493277</v>
       </c>
       <c r="D55" t="n">
-        <v>1004.041864775048</v>
+        <v>1004.041925427289</v>
       </c>
       <c r="E55" t="n">
-        <v>1024.456442669131</v>
+        <v>1024.456504554577</v>
       </c>
       <c r="F55" t="n">
         <v>2421127</v>
@@ -1541,16 +1541,16 @@
         <v>45007</v>
       </c>
       <c r="B56" t="n">
-        <v>1008.096801757812</v>
+        <v>1008.096862792969</v>
       </c>
       <c r="C56" t="n">
-        <v>1030.748614243121</v>
+        <v>1030.74867664973</v>
       </c>
       <c r="D56" t="n">
-        <v>1005.859681237678</v>
+        <v>1005.859742137388</v>
       </c>
       <c r="E56" t="n">
-        <v>1017.884602300026</v>
+        <v>1017.884663927784</v>
       </c>
       <c r="F56" t="n">
         <v>1382329</v>
@@ -1561,16 +1561,16 @@
         <v>45008</v>
       </c>
       <c r="B57" t="n">
-        <v>993.6016845703125</v>
+        <v>993.6016235351562</v>
       </c>
       <c r="C57" t="n">
-        <v>1007.11817213601</v>
+        <v>1007.118110270561</v>
       </c>
       <c r="D57" t="n">
-        <v>989.0340211865683</v>
+        <v>989.0339604319954</v>
       </c>
       <c r="E57" t="n">
-        <v>1003.948766086649</v>
+        <v>1003.94870441589</v>
       </c>
       <c r="F57" t="n">
         <v>2178855</v>
@@ -1621,16 +1621,16 @@
         <v>45013</v>
       </c>
       <c r="B60" t="n">
-        <v>970.4837036132812</v>
+        <v>970.4837646484375</v>
       </c>
       <c r="C60" t="n">
-        <v>991.6440644517994</v>
+        <v>991.6441268177621</v>
       </c>
       <c r="D60" t="n">
-        <v>968.8524035257298</v>
+        <v>968.8524644582911</v>
       </c>
       <c r="E60" t="n">
-        <v>985.1188641015932</v>
+        <v>985.1189260571765</v>
       </c>
       <c r="F60" t="n">
         <v>2965015</v>
@@ -1641,16 +1641,16 @@
         <v>45014</v>
       </c>
       <c r="B61" t="n">
-        <v>995.0931396484375</v>
+        <v>995.0930786132812</v>
       </c>
       <c r="C61" t="n">
-        <v>997.4235685469116</v>
+        <v>997.4235073688159</v>
       </c>
       <c r="D61" t="n">
-        <v>971.4159592818461</v>
+        <v>971.4158996989562</v>
       </c>
       <c r="E61" t="n">
-        <v>975.0514511215604</v>
+        <v>975.0513913156835</v>
       </c>
       <c r="F61" t="n">
         <v>2478745</v>
@@ -1661,16 +1661,16 @@
         <v>45016</v>
       </c>
       <c r="B62" t="n">
-        <v>1011.639038085938</v>
+        <v>1011.639221191406</v>
       </c>
       <c r="C62" t="n">
-        <v>1022.498857935668</v>
+        <v>1022.499043006751</v>
       </c>
       <c r="D62" t="n">
-        <v>996.8641437708549</v>
+        <v>996.8643242020853</v>
       </c>
       <c r="E62" t="n">
-        <v>1009.914543709305</v>
+        <v>1009.914726502642</v>
       </c>
       <c r="F62" t="n">
         <v>3131614</v>
@@ -1681,16 +1681,16 @@
         <v>45019</v>
       </c>
       <c r="B63" t="n">
-        <v>1023.664123535156</v>
+        <v>1023.664184570312</v>
       </c>
       <c r="C63" t="n">
-        <v>1024.689489395062</v>
+        <v>1024.689550491355</v>
       </c>
       <c r="D63" t="n">
-        <v>1014.202560347353</v>
+        <v>1014.202620818371</v>
       </c>
       <c r="E63" t="n">
-        <v>1016.020249199437</v>
+        <v>1016.020309778834</v>
       </c>
       <c r="F63" t="n">
         <v>1540702</v>
@@ -1701,16 +1701,16 @@
         <v>45021</v>
       </c>
       <c r="B64" t="n">
-        <v>1035.8291015625</v>
+        <v>1035.828979492188</v>
       </c>
       <c r="C64" t="n">
-        <v>1037.507056064243</v>
+        <v>1037.506933796187</v>
       </c>
       <c r="D64" t="n">
-        <v>993.8348366151434</v>
+        <v>993.834719493768</v>
       </c>
       <c r="E64" t="n">
-        <v>1011.732486944801</v>
+        <v>1011.732367714225</v>
       </c>
       <c r="F64" t="n">
         <v>3342291</v>
@@ -1721,16 +1721,16 @@
         <v>45022</v>
       </c>
       <c r="B65" t="n">
-        <v>1017.791320800781</v>
+        <v>1017.791381835938</v>
       </c>
       <c r="C65" t="n">
-        <v>1033.82473716244</v>
+        <v>1033.824799159092</v>
       </c>
       <c r="D65" t="n">
-        <v>1011.825401079942</v>
+        <v>1011.825461757333</v>
       </c>
       <c r="E65" t="n">
-        <v>1033.82473716244</v>
+        <v>1033.824799159092</v>
       </c>
       <c r="F65" t="n">
         <v>2378264</v>
@@ -1741,16 +1741,16 @@
         <v>45026</v>
       </c>
       <c r="B66" t="n">
-        <v>1028.278442382812</v>
+        <v>1028.278198242188</v>
       </c>
       <c r="C66" t="n">
-        <v>1030.049591134714</v>
+        <v>1030.049346573571</v>
       </c>
       <c r="D66" t="n">
-        <v>1017.465274862932</v>
+        <v>1017.465033289641</v>
       </c>
       <c r="E66" t="n">
-        <v>1017.791512156328</v>
+        <v>1017.791270505579</v>
       </c>
       <c r="F66" t="n">
         <v>711625</v>
@@ -1801,16 +1801,16 @@
         <v>45029</v>
       </c>
       <c r="B69" t="n">
-        <v>999.1480102539062</v>
+        <v>999.14794921875</v>
       </c>
       <c r="C69" t="n">
-        <v>1015.134774408796</v>
+        <v>1015.134712397053</v>
       </c>
       <c r="D69" t="n">
-        <v>990.898315148347</v>
+        <v>990.8982546171414</v>
       </c>
       <c r="E69" t="n">
-        <v>1015.134774408796</v>
+        <v>1015.134712397053</v>
       </c>
       <c r="F69" t="n">
         <v>3071057</v>
@@ -1821,16 +1821,16 @@
         <v>45033</v>
       </c>
       <c r="B70" t="n">
-        <v>971.5092163085938</v>
+        <v>971.5090942382812</v>
       </c>
       <c r="C70" t="n">
-        <v>983.4410585541635</v>
+        <v>983.440934984613</v>
       </c>
       <c r="D70" t="n">
-        <v>947.3194082992121</v>
+        <v>947.3192892683535</v>
       </c>
       <c r="E70" t="n">
-        <v>983.4410585541635</v>
+        <v>983.440934984613</v>
       </c>
       <c r="F70" t="n">
         <v>9509446</v>
@@ -1841,16 +1841,16 @@
         <v>45034</v>
       </c>
       <c r="B71" t="n">
-        <v>991.6907958984375</v>
+        <v>991.6907348632812</v>
       </c>
       <c r="C71" t="n">
-        <v>994.0678791432346</v>
+        <v>994.0678179617771</v>
       </c>
       <c r="D71" t="n">
-        <v>974.3057717134998</v>
+        <v>974.305711748332</v>
       </c>
       <c r="E71" t="n">
-        <v>978.3608094593873</v>
+        <v>978.3607492446459</v>
       </c>
       <c r="F71" t="n">
         <v>3686404</v>
@@ -1861,16 +1861,16 @@
         <v>45035</v>
       </c>
       <c r="B72" t="n">
-        <v>968.2465209960938</v>
+        <v>968.2463989257812</v>
       </c>
       <c r="C72" t="n">
-        <v>1001.105567370945</v>
+        <v>1001.105441157975</v>
       </c>
       <c r="D72" t="n">
-        <v>966.1491350572735</v>
+        <v>966.149013251386</v>
       </c>
       <c r="E72" t="n">
-        <v>1001.105567370945</v>
+        <v>1001.105441157975</v>
       </c>
       <c r="F72" t="n">
         <v>4322881</v>
@@ -1881,16 +1881,16 @@
         <v>45036</v>
       </c>
       <c r="B73" t="n">
-        <v>967.1279296875</v>
+        <v>967.1278686523438</v>
       </c>
       <c r="C73" t="n">
-        <v>976.1699477067052</v>
+        <v>976.1698861009098</v>
       </c>
       <c r="D73" t="n">
-        <v>961.8611379629159</v>
+        <v>961.8610772601453</v>
       </c>
       <c r="E73" t="n">
-        <v>969.458358433735</v>
+        <v>969.4582972515061</v>
       </c>
       <c r="F73" t="n">
         <v>3057560</v>
@@ -1921,16 +1921,16 @@
         <v>45040</v>
       </c>
       <c r="B75" t="n">
-        <v>982.555419921875</v>
+        <v>982.5553588867188</v>
       </c>
       <c r="C75" t="n">
-        <v>987.076428961009</v>
+        <v>987.0763676450132</v>
       </c>
       <c r="D75" t="n">
-        <v>975.0513937937952</v>
+        <v>975.05133322478</v>
       </c>
       <c r="E75" t="n">
-        <v>985.305280344208</v>
+        <v>985.3052191382337</v>
       </c>
       <c r="F75" t="n">
         <v>2033625</v>
@@ -1941,16 +1941,16 @@
         <v>45041</v>
       </c>
       <c r="B76" t="n">
-        <v>981.995849609375</v>
+        <v>981.9960327148438</v>
       </c>
       <c r="C76" t="n">
-        <v>986.9830572955095</v>
+        <v>986.9832413309057</v>
       </c>
       <c r="D76" t="n">
-        <v>973.5597672823934</v>
+        <v>973.5599488148486</v>
       </c>
       <c r="E76" t="n">
-        <v>979.1993355979112</v>
+        <v>979.1995181819346</v>
       </c>
       <c r="F76" t="n">
         <v>1237595</v>
@@ -1961,16 +1961,16 @@
         <v>45042</v>
       </c>
       <c r="B77" t="n">
-        <v>993.2752685546875</v>
+        <v>993.2754516601562</v>
       </c>
       <c r="C77" t="n">
-        <v>994.6268715518618</v>
+        <v>994.6270549064919</v>
       </c>
       <c r="D77" t="n">
-        <v>976.9156151699635</v>
+        <v>976.9157952596097</v>
       </c>
       <c r="E77" t="n">
-        <v>983.4408148896102</v>
+        <v>983.4409961821453</v>
       </c>
       <c r="F77" t="n">
         <v>1647101</v>
@@ -1981,16 +1981,16 @@
         <v>45043</v>
       </c>
       <c r="B78" t="n">
-        <v>998.5888061523438</v>
+        <v>998.588623046875</v>
       </c>
       <c r="C78" t="n">
-        <v>1002.084449581115</v>
+        <v>1002.08426583467</v>
       </c>
       <c r="D78" t="n">
-        <v>989.0340474470354</v>
+        <v>989.0338660935677</v>
       </c>
       <c r="E78" t="n">
-        <v>993.2754736568018</v>
+        <v>993.2752915256082</v>
       </c>
       <c r="F78" t="n">
         <v>1654910</v>
@@ -2001,16 +2001,16 @@
         <v>45044</v>
       </c>
       <c r="B79" t="n">
-        <v>1008.875549316406</v>
+        <v>1008.875671386719</v>
       </c>
       <c r="C79" t="n">
-        <v>1013.284247787139</v>
+        <v>1013.284370390888</v>
       </c>
       <c r="D79" t="n">
-        <v>999.062714484863</v>
+        <v>999.0628353678577</v>
       </c>
       <c r="E79" t="n">
-        <v>1004.94090195575</v>
+        <v>1004.941023549984</v>
       </c>
       <c r="F79" t="n">
         <v>2629188</v>
@@ -2021,16 +2021,16 @@
         <v>45048</v>
       </c>
       <c r="B80" t="n">
-        <v>1012.146667480469</v>
+        <v>1012.146545410156</v>
       </c>
       <c r="C80" t="n">
-        <v>1019.02040922896</v>
+        <v>1019.020286329637</v>
       </c>
       <c r="D80" t="n">
-        <v>1008.780857985425</v>
+        <v>1008.780736321048</v>
       </c>
       <c r="E80" t="n">
-        <v>1008.87564506941</v>
+        <v>1008.8755233936</v>
       </c>
       <c r="F80" t="n">
         <v>1905168</v>
@@ -2041,16 +2041,16 @@
         <v>45049</v>
       </c>
       <c r="B81" t="n">
-        <v>1003.992797851562</v>
+        <v>1003.992919921875</v>
       </c>
       <c r="C81" t="n">
-        <v>1008.780760348398</v>
+        <v>1008.780883000854</v>
       </c>
       <c r="D81" t="n">
-        <v>1000.247840383044</v>
+        <v>1000.247961998027</v>
       </c>
       <c r="E81" t="n">
-        <v>1006.884555911652</v>
+        <v>1006.884678333559</v>
       </c>
       <c r="F81" t="n">
         <v>1649820</v>
@@ -2061,16 +2061,16 @@
         <v>45050</v>
       </c>
       <c r="B82" t="n">
-        <v>1011.435485839844</v>
+        <v>1011.435546875</v>
       </c>
       <c r="C82" t="n">
-        <v>1012.525710795304</v>
+        <v>1012.52577189625</v>
       </c>
       <c r="D82" t="n">
-        <v>993.8955949215863</v>
+        <v>993.8956548982964</v>
       </c>
       <c r="E82" t="n">
-        <v>1001.243387063018</v>
+        <v>1001.243447483132</v>
       </c>
       <c r="F82" t="n">
         <v>1403672</v>
@@ -2081,16 +2081,16 @@
         <v>45051</v>
       </c>
       <c r="B83" t="n">
-        <v>1000.769470214844</v>
+        <v>1000.769348144531</v>
       </c>
       <c r="C83" t="n">
-        <v>1014.422051308179</v>
+        <v>1014.421927572573</v>
       </c>
       <c r="D83" t="n">
-        <v>997.4984477042393</v>
+        <v>997.4983260329145</v>
       </c>
       <c r="E83" t="n">
-        <v>1011.43562152848</v>
+        <v>1011.435498157148</v>
       </c>
       <c r="F83" t="n">
         <v>1641673</v>
@@ -2101,16 +2101,16 @@
         <v>45054</v>
       </c>
       <c r="B84" t="n">
-        <v>1019.921203613281</v>
+        <v>1019.921081542969</v>
       </c>
       <c r="C84" t="n">
-        <v>1021.580382889436</v>
+        <v>1021.580260620543</v>
       </c>
       <c r="D84" t="n">
-        <v>1000.248077910306</v>
+        <v>1000.247958194592</v>
       </c>
       <c r="E84" t="n">
-        <v>1003.092385240857</v>
+        <v>1003.092265184719</v>
       </c>
       <c r="F84" t="n">
         <v>1389075</v>
@@ -2141,16 +2141,16 @@
         <v>45056</v>
       </c>
       <c r="B86" t="n">
-        <v>1022.338684082031</v>
+        <v>1022.338806152344</v>
       </c>
       <c r="C86" t="n">
-        <v>1032.293757527987</v>
+        <v>1032.293880786965</v>
       </c>
       <c r="D86" t="n">
-        <v>1016.460380796671</v>
+        <v>1016.460502165097</v>
       </c>
       <c r="E86" t="n">
-        <v>1027.885058997751</v>
+        <v>1027.885181730317</v>
       </c>
       <c r="F86" t="n">
         <v>2091411</v>
@@ -2161,16 +2161,16 @@
         <v>45057</v>
       </c>
       <c r="B87" t="n">
-        <v>1031.630126953125</v>
+        <v>1031.630004882812</v>
       </c>
       <c r="C87" t="n">
-        <v>1035.896587458089</v>
+        <v>1035.896464882936</v>
       </c>
       <c r="D87" t="n">
-        <v>1023.997972602002</v>
+        <v>1023.997851434784</v>
       </c>
       <c r="E87" t="n">
-        <v>1025.988964357288</v>
+        <v>1025.988842954481</v>
       </c>
       <c r="F87" t="n">
         <v>2653108</v>
@@ -2181,16 +2181,16 @@
         <v>45058</v>
       </c>
       <c r="B88" t="n">
-        <v>1038.646118164062</v>
+        <v>1038.64599609375</v>
       </c>
       <c r="C88" t="n">
-        <v>1046.136149830943</v>
+        <v>1046.13602688034</v>
       </c>
       <c r="D88" t="n">
-        <v>1021.532824555661</v>
+        <v>1021.532704496645</v>
       </c>
       <c r="E88" t="n">
-        <v>1029.639145893356</v>
+        <v>1029.639024881618</v>
       </c>
       <c r="F88" t="n">
         <v>1585037</v>
@@ -2201,16 +2201,16 @@
         <v>45061</v>
       </c>
       <c r="B89" t="n">
-        <v>1042.675537109375</v>
+        <v>1042.67529296875</v>
       </c>
       <c r="C89" t="n">
-        <v>1048.553725259579</v>
+        <v>1048.553479742587</v>
       </c>
       <c r="D89" t="n">
-        <v>1036.086272211881</v>
+        <v>1036.086029614121</v>
       </c>
       <c r="E89" t="n">
-        <v>1041.91700895154</v>
+        <v>1041.916764988523</v>
       </c>
       <c r="F89" t="n">
         <v>1523466</v>
@@ -2221,16 +2221,16 @@
         <v>45062</v>
       </c>
       <c r="B90" t="n">
-        <v>1034.094970703125</v>
+        <v>1034.095092773438</v>
       </c>
       <c r="C90" t="n">
-        <v>1047.937354707893</v>
+        <v>1047.937478412237</v>
       </c>
       <c r="D90" t="n">
-        <v>1031.629928255401</v>
+        <v>1031.630050034726</v>
       </c>
       <c r="E90" t="n">
-        <v>1043.101941145477</v>
+        <v>1043.102064279022</v>
       </c>
       <c r="F90" t="n">
         <v>1166324</v>
@@ -2241,16 +2241,16 @@
         <v>45063</v>
       </c>
       <c r="B91" t="n">
-        <v>1018.783264160156</v>
+        <v>1018.783386230469</v>
       </c>
       <c r="C91" t="n">
-        <v>1037.176354231399</v>
+        <v>1037.176478505566</v>
       </c>
       <c r="D91" t="n">
-        <v>1007.548160514666</v>
+        <v>1007.548281238791</v>
       </c>
       <c r="E91" t="n">
-        <v>1033.905447939124</v>
+        <v>1033.905571821372</v>
       </c>
       <c r="F91" t="n">
         <v>3602382</v>
@@ -2261,16 +2261,16 @@
         <v>45064</v>
       </c>
       <c r="B92" t="n">
-        <v>1023.855651855469</v>
+        <v>1023.855529785156</v>
       </c>
       <c r="C92" t="n">
-        <v>1028.690950225631</v>
+        <v>1028.690827578824</v>
       </c>
       <c r="D92" t="n">
-        <v>1017.313723126361</v>
+        <v>1017.313601836017</v>
       </c>
       <c r="E92" t="n">
-        <v>1025.799192043844</v>
+        <v>1025.799069741811</v>
       </c>
       <c r="F92" t="n">
         <v>1515743</v>
@@ -2321,16 +2321,16 @@
         <v>45069</v>
       </c>
       <c r="B95" t="n">
-        <v>1049.880859375</v>
+        <v>1049.880981445312</v>
       </c>
       <c r="C95" t="n">
-        <v>1072.6353102537</v>
+        <v>1072.635434969687</v>
       </c>
       <c r="D95" t="n">
-        <v>1046.704740420206</v>
+        <v>1046.704862121229</v>
       </c>
       <c r="E95" t="n">
-        <v>1061.874374339339</v>
+        <v>1061.874497804145</v>
       </c>
       <c r="F95" t="n">
         <v>2138096</v>
@@ -2341,16 +2341,16 @@
         <v>45070</v>
       </c>
       <c r="B96" t="n">
-        <v>1054.242309570312</v>
+        <v>1054.2421875</v>
       </c>
       <c r="C96" t="n">
-        <v>1057.13406788864</v>
+        <v>1057.133945483492</v>
       </c>
       <c r="D96" t="n">
-        <v>1041.016328736974</v>
+        <v>1041.016208198093</v>
       </c>
       <c r="E96" t="n">
-        <v>1042.011882449223</v>
+        <v>1042.011761795067</v>
       </c>
       <c r="F96" t="n">
         <v>1302744</v>
@@ -2361,16 +2361,16 @@
         <v>45071</v>
       </c>
       <c r="B97" t="n">
-        <v>1058.08203125</v>
+        <v>1058.082153320312</v>
       </c>
       <c r="C97" t="n">
-        <v>1060.215261151714</v>
+        <v>1060.215383468136</v>
       </c>
       <c r="D97" t="n">
-        <v>1045.804154331966</v>
+        <v>1045.804274985787</v>
       </c>
       <c r="E97" t="n">
-        <v>1051.63489014188</v>
+        <v>1051.63501146839</v>
       </c>
       <c r="F97" t="n">
         <v>1124803</v>
@@ -2381,16 +2381,16 @@
         <v>45072</v>
       </c>
       <c r="B98" t="n">
-        <v>1080.078002929688</v>
+        <v>1080.078125</v>
       </c>
       <c r="C98" t="n">
-        <v>1081.168343629916</v>
+        <v>1081.168465823459</v>
       </c>
       <c r="D98" t="n">
-        <v>1056.185873275323</v>
+        <v>1056.185992645349</v>
       </c>
       <c r="E98" t="n">
-        <v>1057.133975495498</v>
+        <v>1057.134094972679</v>
       </c>
       <c r="F98" t="n">
         <v>1635167</v>
@@ -2401,16 +2401,16 @@
         <v>45075</v>
       </c>
       <c r="B99" t="n">
-        <v>1067.752685546875</v>
+        <v>1067.752807617188</v>
       </c>
       <c r="C99" t="n">
-        <v>1088.373909057388</v>
+        <v>1088.374033485212</v>
       </c>
       <c r="D99" t="n">
-        <v>1066.046170973293</v>
+        <v>1066.046292848509</v>
       </c>
       <c r="E99" t="n">
-        <v>1086.525156002224</v>
+        <v>1086.52528021869</v>
       </c>
       <c r="F99" t="n">
         <v>1288914</v>
@@ -2441,16 +2441,16 @@
         <v>45077</v>
       </c>
       <c r="B101" t="n">
-        <v>1085.671875</v>
+        <v>1085.671752929688</v>
       </c>
       <c r="C101" t="n">
-        <v>1093.493718646592</v>
+        <v>1093.493595696811</v>
       </c>
       <c r="D101" t="n">
-        <v>1073.346545617491</v>
+        <v>1073.346424933008</v>
       </c>
       <c r="E101" t="n">
-        <v>1075.906491161095</v>
+        <v>1075.906370188779</v>
       </c>
       <c r="F101" t="n">
         <v>5967930</v>
@@ -2461,16 +2461,16 @@
         <v>45078</v>
       </c>
       <c r="B102" t="n">
-        <v>1082.638061523438</v>
+        <v>1082.637939453125</v>
       </c>
       <c r="C102" t="n">
-        <v>1095.200417253788</v>
+        <v>1095.200293767037</v>
       </c>
       <c r="D102" t="n">
-        <v>1078.608626666532</v>
+        <v>1078.608505050549</v>
       </c>
       <c r="E102" t="n">
-        <v>1088.421462523966</v>
+        <v>1088.421339801559</v>
       </c>
       <c r="F102" t="n">
         <v>1445692</v>
@@ -2481,16 +2481,16 @@
         <v>45079</v>
       </c>
       <c r="B103" t="n">
-        <v>1078.039794921875</v>
+        <v>1078.039672851562</v>
       </c>
       <c r="C103" t="n">
-        <v>1091.360563146871</v>
+        <v>1091.3604395682</v>
       </c>
       <c r="D103" t="n">
-        <v>1072.872567809601</v>
+        <v>1072.872446324392</v>
       </c>
       <c r="E103" t="n">
-        <v>1088.421469086437</v>
+        <v>1088.42134584057</v>
       </c>
       <c r="F103" t="n">
         <v>1336554</v>
@@ -2501,16 +2501,16 @@
         <v>45082</v>
       </c>
       <c r="B104" t="n">
-        <v>1079.224975585938</v>
+        <v>1079.224853515625</v>
       </c>
       <c r="C104" t="n">
-        <v>1088.895573479504</v>
+        <v>1088.895450315358</v>
       </c>
       <c r="D104" t="n">
-        <v>1077.044293837803</v>
+        <v>1077.044172014146</v>
       </c>
       <c r="E104" t="n">
-        <v>1084.629112808492</v>
+        <v>1084.628990126922</v>
       </c>
       <c r="F104" t="n">
         <v>1435758</v>
@@ -2541,16 +2541,16 @@
         <v>45084</v>
       </c>
       <c r="B106" t="n">
-        <v>1070.455078125</v>
+        <v>1070.454956054688</v>
       </c>
       <c r="C106" t="n">
-        <v>1074.958564596987</v>
+        <v>1074.958442013115</v>
       </c>
       <c r="D106" t="n">
-        <v>1058.27186950213</v>
+        <v>1058.27174882114</v>
       </c>
       <c r="E106" t="n">
-        <v>1074.958564596987</v>
+        <v>1074.958442013115</v>
       </c>
       <c r="F106" t="n">
         <v>2459039</v>
@@ -2581,16 +2581,16 @@
         <v>45086</v>
       </c>
       <c r="B108" t="n">
-        <v>1052.156494140625</v>
+        <v>1052.156372070312</v>
       </c>
       <c r="C108" t="n">
-        <v>1072.303667378281</v>
+        <v>1072.30354297051</v>
       </c>
       <c r="D108" t="n">
-        <v>1048.553659220541</v>
+        <v>1048.553537568226</v>
       </c>
       <c r="E108" t="n">
-        <v>1070.502249918239</v>
+        <v>1070.502125719467</v>
       </c>
       <c r="F108" t="n">
         <v>1824218</v>
@@ -2601,16 +2601,16 @@
         <v>45089</v>
       </c>
       <c r="B109" t="n">
-        <v>1080.5048828125</v>
+        <v>1080.504760742188</v>
       </c>
       <c r="C109" t="n">
-        <v>1081.737346445217</v>
+        <v>1081.737224235666</v>
       </c>
       <c r="D109" t="n">
-        <v>1053.815778105707</v>
+        <v>1053.815659050603</v>
       </c>
       <c r="E109" t="n">
-        <v>1055.190480240125</v>
+        <v>1055.190361029713</v>
       </c>
       <c r="F109" t="n">
         <v>1670970</v>
@@ -2661,16 +2661,16 @@
         <v>45092</v>
       </c>
       <c r="B112" t="n">
-        <v>1084.249755859375</v>
+        <v>1084.249633789062</v>
       </c>
       <c r="C112" t="n">
-        <v>1087.473326792886</v>
+        <v>1087.473204359648</v>
       </c>
       <c r="D112" t="n">
-        <v>1077.56570415496</v>
+        <v>1077.565582837171</v>
       </c>
       <c r="E112" t="n">
-        <v>1080.836610761892</v>
+        <v>1080.836489075849</v>
       </c>
       <c r="F112" t="n">
         <v>2109652</v>
@@ -2681,16 +2681,16 @@
         <v>45093</v>
       </c>
       <c r="B113" t="n">
-        <v>1088.611083984375</v>
+        <v>1088.61083984375</v>
       </c>
       <c r="C113" t="n">
-        <v>1094.347149559209</v>
+        <v>1094.346904132168</v>
       </c>
       <c r="D113" t="n">
-        <v>1073.678471807154</v>
+        <v>1073.678231015436</v>
       </c>
       <c r="E113" t="n">
-        <v>1090.317714527261</v>
+        <v>1090.317470003893</v>
       </c>
       <c r="F113" t="n">
         <v>2909817</v>
@@ -2701,16 +2701,16 @@
         <v>45096</v>
       </c>
       <c r="B114" t="n">
-        <v>1078.513671875</v>
+        <v>1078.513793945312</v>
       </c>
       <c r="C114" t="n">
-        <v>1094.015119237621</v>
+        <v>1094.015243062447</v>
       </c>
       <c r="D114" t="n">
-        <v>1076.522564726025</v>
+        <v>1076.522686570976</v>
       </c>
       <c r="E114" t="n">
-        <v>1088.610867417034</v>
+        <v>1088.610990630186</v>
       </c>
       <c r="F114" t="n">
         <v>1278608</v>
@@ -2721,16 +2721,16 @@
         <v>45097</v>
       </c>
       <c r="B115" t="n">
-        <v>1107.999877929688</v>
+        <v>1107.999755859375</v>
       </c>
       <c r="C115" t="n">
-        <v>1109.990869795743</v>
+        <v>1109.99074750608</v>
       </c>
       <c r="D115" t="n">
-        <v>1073.725953485953</v>
+        <v>1073.725835191659</v>
       </c>
       <c r="E115" t="n">
-        <v>1074.200004679545</v>
+        <v>1074.199886333024</v>
       </c>
       <c r="F115" t="n">
         <v>3504867</v>
@@ -2741,16 +2741,16 @@
         <v>45098</v>
       </c>
       <c r="B116" t="n">
-        <v>1109.706298828125</v>
+        <v>1109.706176757812</v>
       </c>
       <c r="C116" t="n">
-        <v>1114.6838359394</v>
+        <v>1114.683713321546</v>
       </c>
       <c r="D116" t="n">
-        <v>1101.363067968409</v>
+        <v>1101.362946815871</v>
       </c>
       <c r="E116" t="n">
-        <v>1114.020210618621</v>
+        <v>1114.020088073768</v>
       </c>
       <c r="F116" t="n">
         <v>2019683</v>
@@ -2761,16 +2761,16 @@
         <v>45099</v>
       </c>
       <c r="B117" t="n">
-        <v>1103.022216796875</v>
+        <v>1103.022338867188</v>
       </c>
       <c r="C117" t="n">
-        <v>1109.706268436443</v>
+        <v>1109.706391246472</v>
       </c>
       <c r="D117" t="n">
-        <v>1098.708305124525</v>
+        <v>1098.708426717421</v>
       </c>
       <c r="E117" t="n">
-        <v>1109.421907193245</v>
+        <v>1109.422029971804</v>
       </c>
       <c r="F117" t="n">
         <v>972005</v>
@@ -2781,16 +2781,16 @@
         <v>45100</v>
       </c>
       <c r="B118" t="n">
-        <v>1104.681274414062</v>
+        <v>1104.681396484375</v>
       </c>
       <c r="C118" t="n">
-        <v>1109.801049315662</v>
+        <v>1109.801171951724</v>
       </c>
       <c r="D118" t="n">
-        <v>1091.265605465699</v>
+        <v>1091.265726053543</v>
       </c>
       <c r="E118" t="n">
-        <v>1101.59994233955</v>
+        <v>1101.600064069367</v>
       </c>
       <c r="F118" t="n">
         <v>1699790</v>
@@ -2801,16 +2801,16 @@
         <v>45103</v>
       </c>
       <c r="B119" t="n">
-        <v>1106.909423828125</v>
+        <v>1106.909301757812</v>
       </c>
       <c r="C119" t="n">
-        <v>1114.9208418864</v>
+        <v>1114.920718932586</v>
       </c>
       <c r="D119" t="n">
-        <v>1102.690414930717</v>
+        <v>1102.690293325678</v>
       </c>
       <c r="E119" t="n">
-        <v>1106.672398255571</v>
+        <v>1106.672276211398</v>
       </c>
       <c r="F119" t="n">
         <v>1190307</v>
@@ -2821,16 +2821,16 @@
         <v>45104</v>
       </c>
       <c r="B120" t="n">
-        <v>1109.27978515625</v>
+        <v>1109.279663085938</v>
       </c>
       <c r="C120" t="n">
-        <v>1113.498794455304</v>
+        <v>1113.498671920712</v>
       </c>
       <c r="D120" t="n">
-        <v>1099.988335533529</v>
+        <v>1099.988214485691</v>
       </c>
       <c r="E120" t="n">
-        <v>1106.435478014824</v>
+        <v>1106.435356257512</v>
       </c>
       <c r="F120" t="n">
         <v>1504039</v>
@@ -2841,16 +2841,16 @@
         <v>45105</v>
       </c>
       <c r="B121" t="n">
-        <v>1109.516845703125</v>
+        <v>1109.516723632812</v>
       </c>
       <c r="C121" t="n">
-        <v>1113.024778327329</v>
+        <v>1113.024655871069</v>
       </c>
       <c r="D121" t="n">
-        <v>1105.961461664341</v>
+        <v>1105.961339985196</v>
       </c>
       <c r="E121" t="n">
-        <v>1112.550727122157</v>
+        <v>1112.550604718054</v>
       </c>
       <c r="F121" t="n">
         <v>1424076</v>
@@ -2861,16 +2861,16 @@
         <v>45107</v>
       </c>
       <c r="B122" t="n">
-        <v>1126.297973632812</v>
+        <v>1126.298095703125</v>
       </c>
       <c r="C122" t="n">
-        <v>1132.034038295111</v>
+        <v>1132.03416098711</v>
       </c>
       <c r="D122" t="n">
-        <v>1104.539074215917</v>
+        <v>1104.539193927959</v>
       </c>
       <c r="E122" t="n">
-        <v>1109.611397890397</v>
+        <v>1109.611518152187</v>
       </c>
       <c r="F122" t="n">
         <v>3036648</v>
@@ -2881,16 +2881,16 @@
         <v>45110</v>
       </c>
       <c r="B123" t="n">
-        <v>1120.277465820312</v>
+        <v>1120.277709960938</v>
       </c>
       <c r="C123" t="n">
-        <v>1132.982057647231</v>
+        <v>1132.982304556551</v>
       </c>
       <c r="D123" t="n">
-        <v>1113.545963771275</v>
+        <v>1113.546206444912</v>
       </c>
       <c r="E123" t="n">
-        <v>1128.241546945778</v>
+        <v>1128.241792822005</v>
       </c>
       <c r="F123" t="n">
         <v>1749952</v>
@@ -2901,16 +2901,16 @@
         <v>45111</v>
       </c>
       <c r="B124" t="n">
-        <v>1128.810668945312</v>
+        <v>1128.810546875</v>
       </c>
       <c r="C124" t="n">
-        <v>1131.086137801248</v>
+        <v>1131.086015484864</v>
       </c>
       <c r="D124" t="n">
-        <v>1117.386104722947</v>
+        <v>1117.385983888094</v>
       </c>
       <c r="E124" t="n">
-        <v>1120.657011635436</v>
+        <v>1120.656890446865</v>
       </c>
       <c r="F124" t="n">
         <v>1094468</v>
@@ -2921,16 +2921,16 @@
         <v>45112</v>
       </c>
       <c r="B125" t="n">
-        <v>1132.792724609375</v>
+        <v>1132.79248046875</v>
       </c>
       <c r="C125" t="n">
-        <v>1140.187853436497</v>
+        <v>1140.187607702067</v>
       </c>
       <c r="D125" t="n">
-        <v>1125.966318305321</v>
+        <v>1125.96607563593</v>
       </c>
       <c r="E125" t="n">
-        <v>1132.034196441653</v>
+        <v>1132.033952464506</v>
       </c>
       <c r="F125" t="n">
         <v>1653610</v>
@@ -2941,16 +2941,16 @@
         <v>45113</v>
       </c>
       <c r="B126" t="n">
-        <v>1119.377075195312</v>
+        <v>1119.376953125</v>
       </c>
       <c r="C126" t="n">
-        <v>1135.826628004779</v>
+        <v>1135.82650414061</v>
       </c>
       <c r="D126" t="n">
-        <v>1113.972822298773</v>
+        <v>1113.972700817805</v>
       </c>
       <c r="E126" t="n">
-        <v>1132.792746744903</v>
+        <v>1132.792623211585</v>
       </c>
       <c r="F126" t="n">
         <v>2334220</v>
@@ -2961,16 +2961,16 @@
         <v>45114</v>
       </c>
       <c r="B127" t="n">
-        <v>1097.523193359375</v>
+        <v>1097.523071289062</v>
       </c>
       <c r="C127" t="n">
-        <v>1121.557563386532</v>
+        <v>1121.557438643034</v>
       </c>
       <c r="D127" t="n">
-        <v>1093.92047408007</v>
+        <v>1093.920352410465</v>
       </c>
       <c r="E127" t="n">
-        <v>1117.006741812388</v>
+        <v>1117.006617575048</v>
       </c>
       <c r="F127" t="n">
         <v>2159585</v>
@@ -2981,16 +2981,16 @@
         <v>45117</v>
       </c>
       <c r="B128" t="n">
-        <v>1066.14111328125</v>
+        <v>1066.140991210938</v>
       </c>
       <c r="C128" t="n">
-        <v>1101.600165006954</v>
+        <v>1101.600038876675</v>
       </c>
       <c r="D128" t="n">
-        <v>1061.874652623388</v>
+        <v>1061.874531041574</v>
       </c>
       <c r="E128" t="n">
-        <v>1099.798747359938</v>
+        <v>1099.798621435916</v>
       </c>
       <c r="F128" t="n">
         <v>3960400</v>
@@ -3001,16 +3001,16 @@
         <v>45118</v>
       </c>
       <c r="B129" t="n">
-        <v>1057.039184570312</v>
+        <v>1057.039306640625</v>
       </c>
       <c r="C129" t="n">
-        <v>1073.01468377505</v>
+        <v>1073.014807690265</v>
       </c>
       <c r="D129" t="n">
-        <v>1054.289664994792</v>
+        <v>1054.289786747581</v>
       </c>
       <c r="E129" t="n">
-        <v>1073.01468377505</v>
+        <v>1073.014807690265</v>
       </c>
       <c r="F129" t="n">
         <v>4982603</v>
@@ -3021,16 +3021,16 @@
         <v>45119</v>
       </c>
       <c r="B130" t="n">
-        <v>1052.915161132812</v>
+        <v>1052.914916992188</v>
       </c>
       <c r="C130" t="n">
-        <v>1066.141143249899</v>
+        <v>1066.14089604255</v>
       </c>
       <c r="D130" t="n">
-        <v>1045.235439144667</v>
+        <v>1045.235196784747</v>
       </c>
       <c r="E130" t="n">
-        <v>1061.590205459527</v>
+        <v>1061.58995930741</v>
       </c>
       <c r="F130" t="n">
         <v>3824027</v>
@@ -3061,16 +3061,16 @@
         <v>45121</v>
       </c>
       <c r="B132" t="n">
-        <v>1091.218139648438</v>
+        <v>1091.21826171875</v>
       </c>
       <c r="C132" t="n">
-        <v>1097.048991105595</v>
+        <v>1097.049113828182</v>
       </c>
       <c r="D132" t="n">
-        <v>1053.863006965125</v>
+        <v>1053.863124856665</v>
       </c>
       <c r="E132" t="n">
-        <v>1056.375385112284</v>
+        <v>1056.375503284873</v>
       </c>
       <c r="F132" t="n">
         <v>6605038</v>
@@ -3081,16 +3081,16 @@
         <v>45124</v>
       </c>
       <c r="B133" t="n">
-        <v>1093.872924804688</v>
+        <v>1093.873046875</v>
       </c>
       <c r="C133" t="n">
-        <v>1111.175790137459</v>
+        <v>1111.175914138678</v>
       </c>
       <c r="D133" t="n">
-        <v>1084.297115630564</v>
+        <v>1084.297236632268</v>
       </c>
       <c r="E133" t="n">
-        <v>1092.166294532607</v>
+        <v>1092.166416412469</v>
       </c>
       <c r="F133" t="n">
         <v>3159479</v>
@@ -3101,16 +3101,16 @@
         <v>45125</v>
       </c>
       <c r="B134" t="n">
-        <v>1106.624877929688</v>
+        <v>1106.625</v>
       </c>
       <c r="C134" t="n">
-        <v>1109.279610471023</v>
+        <v>1109.279732834175</v>
       </c>
       <c r="D134" t="n">
-        <v>1086.904420962395</v>
+        <v>1086.90454085737</v>
       </c>
       <c r="E134" t="n">
-        <v>1098.80303452252</v>
+        <v>1098.803155730016</v>
       </c>
       <c r="F134" t="n">
         <v>2431478</v>
@@ -3141,16 +3141,16 @@
         <v>45127</v>
       </c>
       <c r="B136" t="n">
-        <v>1105.271240234375</v>
+        <v>1105.271118164062</v>
       </c>
       <c r="C136" t="n">
-        <v>1111.965217007853</v>
+        <v>1111.965094198233</v>
       </c>
       <c r="D136" t="n">
-        <v>1097.812190850451</v>
+        <v>1097.812069603944</v>
       </c>
       <c r="E136" t="n">
-        <v>1109.287579604986</v>
+        <v>1109.287457091094</v>
       </c>
       <c r="F136" t="n">
         <v>1990001</v>
@@ -3161,16 +3161,16 @@
         <v>45128</v>
       </c>
       <c r="B137" t="n">
-        <v>1066.68505859375</v>
+        <v>1066.684936523438</v>
       </c>
       <c r="C137" t="n">
-        <v>1090.066231170399</v>
+        <v>1090.06610642437</v>
       </c>
       <c r="D137" t="n">
-        <v>1047.129132000097</v>
+        <v>1047.129012167744</v>
       </c>
       <c r="E137" t="n">
-        <v>1061.47336668503</v>
+        <v>1061.473245211138</v>
       </c>
       <c r="F137" t="n">
         <v>5259150</v>
@@ -3181,16 +3181,16 @@
         <v>45131</v>
       </c>
       <c r="B138" t="n">
-        <v>1064.246704101562</v>
+        <v>1064.24658203125</v>
       </c>
       <c r="C138" t="n">
-        <v>1078.399613552022</v>
+        <v>1078.399489858355</v>
       </c>
       <c r="D138" t="n">
-        <v>1062.429744198589</v>
+        <v>1062.429622336684</v>
       </c>
       <c r="E138" t="n">
-        <v>1071.036285780756</v>
+        <v>1071.036162931671</v>
       </c>
       <c r="F138" t="n">
         <v>2672505</v>
@@ -3201,16 +3201,16 @@
         <v>45132</v>
       </c>
       <c r="B139" t="n">
-        <v>1062.955688476562</v>
+        <v>1062.955810546875</v>
       </c>
       <c r="C139" t="n">
-        <v>1070.07994526137</v>
+        <v>1070.080068149836</v>
       </c>
       <c r="D139" t="n">
-        <v>1056.787597304148</v>
+        <v>1056.787718666114</v>
       </c>
       <c r="E139" t="n">
-        <v>1069.601804088331</v>
+        <v>1069.601926921887</v>
       </c>
       <c r="F139" t="n">
         <v>2506726</v>
@@ -3221,16 +3221,16 @@
         <v>45133</v>
       </c>
       <c r="B140" t="n">
-        <v>1066.254760742188</v>
+        <v>1066.254516601562</v>
       </c>
       <c r="C140" t="n">
-        <v>1071.848988830736</v>
+        <v>1071.848743409199</v>
       </c>
       <c r="D140" t="n">
-        <v>1061.568954141966</v>
+        <v>1061.568711074251</v>
       </c>
       <c r="E140" t="n">
-        <v>1061.664559024893</v>
+        <v>1061.664315935288</v>
       </c>
       <c r="F140" t="n">
         <v>1969964</v>
@@ -3241,16 +3241,16 @@
         <v>45134</v>
       </c>
       <c r="B141" t="n">
-        <v>1068.502075195312</v>
+        <v>1068.501953125</v>
       </c>
       <c r="C141" t="n">
-        <v>1073.618162491793</v>
+        <v>1073.618039836997</v>
       </c>
       <c r="D141" t="n">
-        <v>1060.469279997541</v>
+        <v>1060.46915884493</v>
       </c>
       <c r="E141" t="n">
-        <v>1066.254834988487</v>
+        <v>1066.254713174909</v>
       </c>
       <c r="F141" t="n">
         <v>1769815</v>
@@ -3301,16 +3301,16 @@
         <v>45139</v>
       </c>
       <c r="B144" t="n">
-        <v>1088.727294921875</v>
+        <v>1088.727416992188</v>
       </c>
       <c r="C144" t="n">
-        <v>1092.074282653299</v>
+        <v>1092.074405098883</v>
       </c>
       <c r="D144" t="n">
-        <v>1063.290211509784</v>
+        <v>1063.290330728039</v>
       </c>
       <c r="E144" t="n">
-        <v>1071.036074055775</v>
+        <v>1071.036194142512</v>
       </c>
       <c r="F144" t="n">
         <v>2710536</v>
@@ -3341,16 +3341,16 @@
         <v>45141</v>
       </c>
       <c r="B146" t="n">
-        <v>1076.295654296875</v>
+        <v>1076.295776367188</v>
       </c>
       <c r="C146" t="n">
-        <v>1085.906337441417</v>
+        <v>1085.906460601745</v>
       </c>
       <c r="D146" t="n">
-        <v>1066.302551645695</v>
+        <v>1066.302672582618</v>
       </c>
       <c r="E146" t="n">
-        <v>1076.773795413844</v>
+        <v>1076.773917538386</v>
       </c>
       <c r="F146" t="n">
         <v>1608187</v>
@@ -3361,16 +3361,16 @@
         <v>45142</v>
       </c>
       <c r="B147" t="n">
-        <v>1094.321655273438</v>
+        <v>1094.321533203125</v>
       </c>
       <c r="C147" t="n">
-        <v>1101.971913873482</v>
+        <v>1101.971790949792</v>
       </c>
       <c r="D147" t="n">
-        <v>1076.773897956321</v>
+        <v>1076.77377784344</v>
       </c>
       <c r="E147" t="n">
-        <v>1081.029307609123</v>
+        <v>1081.029187021556</v>
       </c>
       <c r="F147" t="n">
         <v>3315303</v>
@@ -3381,16 +3381,16 @@
         <v>45145</v>
       </c>
       <c r="B148" t="n">
-        <v>1100.489624023438</v>
+        <v>1100.48974609375</v>
       </c>
       <c r="C148" t="n">
-        <v>1105.22317431275</v>
+        <v>1105.223296908125</v>
       </c>
       <c r="D148" t="n">
-        <v>1093.174041703316</v>
+        <v>1093.174162962158</v>
       </c>
       <c r="E148" t="n">
-        <v>1104.075682343725</v>
+        <v>1104.075804811817</v>
       </c>
       <c r="F148" t="n">
         <v>1655404</v>
@@ -3521,16 +3521,16 @@
         <v>45155</v>
       </c>
       <c r="B155" t="n">
-        <v>1125.25732421875</v>
+        <v>1125.257446289062</v>
       </c>
       <c r="C155" t="n">
-        <v>1129.321523952222</v>
+        <v>1129.321646463428</v>
       </c>
       <c r="D155" t="n">
-        <v>1113.064725018333</v>
+        <v>1113.064845765966</v>
       </c>
       <c r="E155" t="n">
-        <v>1125.40078990902</v>
+        <v>1125.400911994896</v>
       </c>
       <c r="F155" t="n">
         <v>2331256</v>
@@ -3561,16 +3561,16 @@
         <v>45159</v>
       </c>
       <c r="B157" t="n">
-        <v>1127.695922851562</v>
+        <v>1127.69580078125</v>
       </c>
       <c r="C157" t="n">
-        <v>1136.92407056168</v>
+        <v>1136.923947492443</v>
       </c>
       <c r="D157" t="n">
-        <v>1117.846168288367</v>
+        <v>1117.846047284266</v>
       </c>
       <c r="E157" t="n">
-        <v>1121.671297558162</v>
+        <v>1121.671176140001</v>
       </c>
       <c r="F157" t="n">
         <v>1661946</v>
@@ -3601,16 +3601,16 @@
         <v>45161</v>
       </c>
       <c r="B159" t="n">
-        <v>1130.803833007812</v>
+        <v>1130.8037109375</v>
       </c>
       <c r="C159" t="n">
-        <v>1142.757361897958</v>
+        <v>1142.757238537262</v>
       </c>
       <c r="D159" t="n">
-        <v>1127.122169456384</v>
+        <v>1127.122047783507</v>
       </c>
       <c r="E159" t="n">
-        <v>1140.796936466502</v>
+        <v>1140.796813317434</v>
       </c>
       <c r="F159" t="n">
         <v>2347850</v>
@@ -3641,16 +3641,16 @@
         <v>45163</v>
       </c>
       <c r="B161" t="n">
-        <v>1103.501953125</v>
+        <v>1103.501831054688</v>
       </c>
       <c r="C161" t="n">
-        <v>1119.615403847136</v>
+        <v>1119.61527999434</v>
       </c>
       <c r="D161" t="n">
-        <v>1099.724684597465</v>
+        <v>1099.724562944997</v>
       </c>
       <c r="E161" t="n">
-        <v>1114.068919613953</v>
+        <v>1114.068796374714</v>
       </c>
       <c r="F161" t="n">
         <v>2105159</v>
@@ -3661,16 +3661,16 @@
         <v>45166</v>
       </c>
       <c r="B162" t="n">
-        <v>1096.329711914062</v>
+        <v>1096.329833984375</v>
       </c>
       <c r="C162" t="n">
-        <v>1109.000451415611</v>
+        <v>1109.000574896741</v>
       </c>
       <c r="D162" t="n">
-        <v>1089.492387381295</v>
+        <v>1089.492508690309</v>
       </c>
       <c r="E162" t="n">
-        <v>1104.505971644379</v>
+        <v>1104.506094625073</v>
       </c>
       <c r="F162" t="n">
         <v>2571967</v>
@@ -3701,16 +3701,16 @@
         <v>45168</v>
       </c>
       <c r="B164" t="n">
-        <v>1119.328491210938</v>
+        <v>1119.328369140625</v>
       </c>
       <c r="C164" t="n">
-        <v>1123.775227487304</v>
+        <v>1123.775104932045</v>
       </c>
       <c r="D164" t="n">
-        <v>1110.865415756123</v>
+        <v>1110.865294608765</v>
       </c>
       <c r="E164" t="n">
-        <v>1115.025220633877</v>
+        <v>1115.025099032865</v>
       </c>
       <c r="F164" t="n">
         <v>1497356</v>
@@ -3721,16 +3721,16 @@
         <v>45169</v>
       </c>
       <c r="B165" t="n">
-        <v>1120.90625</v>
+        <v>1120.906372070312</v>
       </c>
       <c r="C165" t="n">
-        <v>1136.158905021431</v>
+        <v>1136.159028752807</v>
       </c>
       <c r="D165" t="n">
-        <v>1114.929486005133</v>
+        <v>1114.929607424557</v>
       </c>
       <c r="E165" t="n">
-        <v>1127.934901111229</v>
+        <v>1127.935023946984</v>
       </c>
       <c r="F165" t="n">
         <v>4483967</v>
@@ -3741,16 +3741,16 @@
         <v>45170</v>
       </c>
       <c r="B166" t="n">
-        <v>1133.959594726562</v>
+        <v>1133.959716796875</v>
       </c>
       <c r="C166" t="n">
-        <v>1136.063369086956</v>
+        <v>1136.063491383739</v>
       </c>
       <c r="D166" t="n">
-        <v>1119.90217491735</v>
+        <v>1119.902295474387</v>
       </c>
       <c r="E166" t="n">
-        <v>1121.719134628787</v>
+        <v>1121.719255381419</v>
       </c>
       <c r="F166" t="n">
         <v>1669640</v>
@@ -3761,16 +3761,16 @@
         <v>45173</v>
       </c>
       <c r="B167" t="n">
-        <v>1178.617919921875</v>
+        <v>1178.617797851562</v>
       </c>
       <c r="C167" t="n">
-        <v>1181.008625641798</v>
+        <v>1181.008503323878</v>
       </c>
       <c r="D167" t="n">
-        <v>1133.194511243344</v>
+        <v>1133.194393877567</v>
       </c>
       <c r="E167" t="n">
-        <v>1134.150793531313</v>
+        <v>1134.150676066493</v>
       </c>
       <c r="F167" t="n">
         <v>4517935</v>
@@ -3781,16 +3781,16 @@
         <v>45174</v>
       </c>
       <c r="B168" t="n">
-        <v>1181.534545898438</v>
+        <v>1181.53466796875</v>
       </c>
       <c r="C168" t="n">
-        <v>1187.41558817587</v>
+        <v>1187.415710853783</v>
       </c>
       <c r="D168" t="n">
-        <v>1171.636931515369</v>
+        <v>1171.637052563109</v>
       </c>
       <c r="E168" t="n">
-        <v>1182.682037871188</v>
+        <v>1182.682160060054</v>
       </c>
       <c r="F168" t="n">
         <v>2842400</v>
@@ -3821,16 +3821,16 @@
         <v>45176</v>
       </c>
       <c r="B170" t="n">
-        <v>1199.177856445312</v>
+        <v>1199.177978515625</v>
       </c>
       <c r="C170" t="n">
-        <v>1202.046702991832</v>
+        <v>1202.046825354179</v>
       </c>
       <c r="D170" t="n">
-        <v>1176.514015421271</v>
+        <v>1176.514135184518</v>
       </c>
       <c r="E170" t="n">
-        <v>1183.87734153054</v>
+        <v>1183.877462043336</v>
       </c>
       <c r="F170" t="n">
         <v>2582004</v>
@@ -3841,16 +3841,16 @@
         <v>45177</v>
       </c>
       <c r="B171" t="n">
-        <v>1206.876098632812</v>
+        <v>1206.876220703125</v>
       </c>
       <c r="C171" t="n">
-        <v>1214.048215735578</v>
+        <v>1214.048338531319</v>
       </c>
       <c r="D171" t="n">
-        <v>1199.464910959955</v>
+        <v>1199.465032280658</v>
       </c>
       <c r="E171" t="n">
-        <v>1203.959390984217</v>
+        <v>1203.959512759517</v>
       </c>
       <c r="F171" t="n">
         <v>2280777</v>
@@ -3861,16 +3861,16 @@
         <v>45180</v>
       </c>
       <c r="B172" t="n">
-        <v>1225.523681640625</v>
+        <v>1225.523559570312</v>
       </c>
       <c r="C172" t="n">
-        <v>1228.153458080174</v>
+        <v>1228.153335747919</v>
       </c>
       <c r="D172" t="n">
-        <v>1214.861110184442</v>
+        <v>1214.860989176193</v>
       </c>
       <c r="E172" t="n">
-        <v>1220.742269932353</v>
+        <v>1220.742148338301</v>
       </c>
       <c r="F172" t="n">
         <v>2691836</v>
@@ -3881,16 +3881,16 @@
         <v>45181</v>
       </c>
       <c r="B173" t="n">
-        <v>1226.33642578125</v>
+        <v>1226.336303710938</v>
       </c>
       <c r="C173" t="n">
-        <v>1235.277641800362</v>
+        <v>1235.277518840035</v>
       </c>
       <c r="D173" t="n">
-        <v>1210.175231816031</v>
+        <v>1210.175111354414</v>
       </c>
       <c r="E173" t="n">
-        <v>1228.82273637582</v>
+        <v>1228.822614058018</v>
       </c>
       <c r="F173" t="n">
         <v>2140769</v>
@@ -3901,16 +3901,16 @@
         <v>45182</v>
       </c>
       <c r="B174" t="n">
-        <v>1219.499145507812</v>
+        <v>1219.498901367188</v>
       </c>
       <c r="C174" t="n">
-        <v>1226.336588098135</v>
+        <v>1226.336342588672</v>
       </c>
       <c r="D174" t="n">
-        <v>1210.749138094109</v>
+        <v>1210.748895705213</v>
       </c>
       <c r="E174" t="n">
-        <v>1225.954051786721</v>
+        <v>1225.95380635384</v>
       </c>
       <c r="F174" t="n">
         <v>2275523</v>
@@ -3921,16 +3921,16 @@
         <v>45183</v>
       </c>
       <c r="B175" t="n">
-        <v>1227.48388671875</v>
+        <v>1227.483764648438</v>
       </c>
       <c r="C175" t="n">
-        <v>1234.273467424263</v>
+        <v>1234.273344678743</v>
       </c>
       <c r="D175" t="n">
-        <v>1219.833628631711</v>
+        <v>1219.833507322198</v>
       </c>
       <c r="E175" t="n">
-        <v>1224.85411050133</v>
+        <v>1224.853988692543</v>
       </c>
       <c r="F175" t="n">
         <v>2655172</v>
@@ -3961,16 +3961,16 @@
         <v>45187</v>
       </c>
       <c r="B177" t="n">
-        <v>1247.948364257812</v>
+        <v>1247.948486328125</v>
       </c>
       <c r="C177" t="n">
-        <v>1253.972989261493</v>
+        <v>1253.973111921115</v>
       </c>
       <c r="D177" t="n">
-        <v>1233.317198810975</v>
+        <v>1233.317319450113</v>
       </c>
       <c r="E177" t="n">
-        <v>1245.079517443427</v>
+        <v>1245.079639233118</v>
       </c>
       <c r="F177" t="n">
         <v>2761885</v>
@@ -4001,16 +4001,16 @@
         <v>45190</v>
       </c>
       <c r="B179" t="n">
-        <v>1222.128662109375</v>
+        <v>1222.12890625</v>
       </c>
       <c r="C179" t="n">
-        <v>1228.822637566938</v>
+        <v>1228.822883044797</v>
       </c>
       <c r="D179" t="n">
-        <v>1204.246231509067</v>
+        <v>1204.246472077377</v>
       </c>
       <c r="E179" t="n">
-        <v>1227.866355358715</v>
+        <v>1227.86660064554</v>
       </c>
       <c r="F179" t="n">
         <v>3112700</v>
@@ -4021,16 +4021,16 @@
         <v>45191</v>
       </c>
       <c r="B180" t="n">
-        <v>1218.016723632812</v>
+        <v>1218.0166015625</v>
       </c>
       <c r="C180" t="n">
-        <v>1227.483941786984</v>
+        <v>1227.483818767861</v>
       </c>
       <c r="D180" t="n">
-        <v>1209.792719167029</v>
+        <v>1209.792597920931</v>
       </c>
       <c r="E180" t="n">
-        <v>1216.821370753086</v>
+        <v>1216.821248802572</v>
       </c>
       <c r="F180" t="n">
         <v>1321467</v>
@@ -4041,16 +4041,16 @@
         <v>45194</v>
       </c>
       <c r="B181" t="n">
-        <v>1208.21484375</v>
+        <v>1208.214965820312</v>
       </c>
       <c r="C181" t="n">
-        <v>1224.041362750916</v>
+        <v>1224.041486420239</v>
       </c>
       <c r="D181" t="n">
-        <v>1201.66433324139</v>
+        <v>1201.66445464988</v>
       </c>
       <c r="E181" t="n">
-        <v>1214.478539604424</v>
+        <v>1214.478662307581</v>
       </c>
       <c r="F181" t="n">
         <v>1246703</v>
@@ -4061,16 +4061,16 @@
         <v>45195</v>
       </c>
       <c r="B182" t="n">
-        <v>1206.30224609375</v>
+        <v>1206.302368164062</v>
       </c>
       <c r="C182" t="n">
-        <v>1213.474363257256</v>
+        <v>1213.474486053342</v>
       </c>
       <c r="D182" t="n">
-        <v>1202.142441485652</v>
+        <v>1202.142563135018</v>
       </c>
       <c r="E182" t="n">
-        <v>1208.740812622813</v>
+        <v>1208.740934939893</v>
       </c>
       <c r="F182" t="n">
         <v>903152</v>
@@ -4101,16 +4101,16 @@
         <v>45197</v>
       </c>
       <c r="B184" t="n">
-        <v>1187.607055664062</v>
+        <v>1187.60693359375</v>
       </c>
       <c r="C184" t="n">
-        <v>1210.653436600157</v>
+        <v>1210.653312160981</v>
       </c>
       <c r="D184" t="n">
-        <v>1184.403533187252</v>
+        <v>1184.403411446219</v>
       </c>
       <c r="E184" t="n">
-        <v>1205.967629810023</v>
+        <v>1205.967505852486</v>
       </c>
       <c r="F184" t="n">
         <v>1807072</v>
@@ -4141,16 +4141,16 @@
         <v>45202</v>
       </c>
       <c r="B186" t="n">
-        <v>1184.546752929688</v>
+        <v>1184.546875</v>
       </c>
       <c r="C186" t="n">
-        <v>1201.7598330889</v>
+        <v>1201.759956933061</v>
       </c>
       <c r="D186" t="n">
-        <v>1169.246237232609</v>
+        <v>1169.246357726168</v>
       </c>
       <c r="E186" t="n">
-        <v>1178.617849790538</v>
+        <v>1178.617971249863</v>
       </c>
       <c r="F186" t="n">
         <v>2162636</v>
@@ -4181,16 +4181,16 @@
         <v>45204</v>
       </c>
       <c r="B188" t="n">
-        <v>1181.438842773438</v>
+        <v>1181.43896484375</v>
       </c>
       <c r="C188" t="n">
-        <v>1199.130064154422</v>
+        <v>1199.130188052653</v>
       </c>
       <c r="D188" t="n">
-        <v>1174.123377048778</v>
+        <v>1174.123498363232</v>
       </c>
       <c r="E188" t="n">
-        <v>1194.396513775682</v>
+        <v>1194.396637184825</v>
       </c>
       <c r="F188" t="n">
         <v>2995200</v>
@@ -4201,16 +4201,16 @@
         <v>45205</v>
       </c>
       <c r="B189" t="n">
-        <v>1183.590454101562</v>
+        <v>1183.590576171875</v>
       </c>
       <c r="C189" t="n">
-        <v>1201.090465378167</v>
+        <v>1201.090589253354</v>
       </c>
       <c r="D189" t="n">
-        <v>1176.322732594097</v>
+        <v>1176.322853914849</v>
       </c>
       <c r="E189" t="n">
-        <v>1197.265336507536</v>
+        <v>1197.265459988216</v>
       </c>
       <c r="F189" t="n">
         <v>2497711</v>
@@ -4221,16 +4221,16 @@
         <v>45208</v>
       </c>
       <c r="B190" t="n">
-        <v>1194.97021484375</v>
+        <v>1194.970458984375</v>
       </c>
       <c r="C190" t="n">
-        <v>1211.274873061823</v>
+        <v>1211.275120533601</v>
       </c>
       <c r="D190" t="n">
-        <v>1177.326854931411</v>
+        <v>1177.327095467377</v>
       </c>
       <c r="E190" t="n">
-        <v>1181.964800258833</v>
+        <v>1181.965041742362</v>
       </c>
       <c r="F190" t="n">
         <v>3430211</v>
@@ -4261,16 +4261,16 @@
         <v>45210</v>
       </c>
       <c r="B192" t="n">
-        <v>1191.145263671875</v>
+        <v>1191.145385742188</v>
       </c>
       <c r="C192" t="n">
-        <v>1218.733985934071</v>
+        <v>1218.734110831716</v>
       </c>
       <c r="D192" t="n">
-        <v>1186.746388238678</v>
+        <v>1186.746509858187</v>
       </c>
       <c r="E192" t="n">
-        <v>1210.653446825275</v>
+        <v>1210.653570894815</v>
       </c>
       <c r="F192" t="n">
         <v>2186131</v>
@@ -4381,16 +4381,16 @@
         <v>45218</v>
       </c>
       <c r="B198" t="n">
-        <v>1211.944213867188</v>
+        <v>1211.9443359375</v>
       </c>
       <c r="C198" t="n">
-        <v>1219.020725441627</v>
+        <v>1219.020848224704</v>
       </c>
       <c r="D198" t="n">
-        <v>1209.601369187968</v>
+        <v>1209.601491022302</v>
       </c>
       <c r="E198" t="n">
-        <v>1211.418328701274</v>
+        <v>1211.418450718618</v>
       </c>
       <c r="F198" t="n">
         <v>2279726</v>
@@ -4441,16 +4441,16 @@
         <v>45224</v>
       </c>
       <c r="B201" t="n">
-        <v>1186.50537109375</v>
+        <v>1186.505493164062</v>
       </c>
       <c r="C201" t="n">
-        <v>1209.57901416662</v>
+        <v>1209.5791386108</v>
       </c>
       <c r="D201" t="n">
-        <v>1182.933351615952</v>
+        <v>1182.933473318767</v>
       </c>
       <c r="E201" t="n">
-        <v>1188.6292554563</v>
+        <v>1188.629377745122</v>
       </c>
       <c r="F201" t="n">
         <v>1420065</v>
@@ -4481,16 +4481,16 @@
         <v>45226</v>
       </c>
       <c r="B203" t="n">
-        <v>1224.832641601562</v>
+        <v>1224.832763671875</v>
       </c>
       <c r="C203" t="n">
-        <v>1226.087739183061</v>
+        <v>1226.08786137846</v>
       </c>
       <c r="D203" t="n">
-        <v>1190.801466163608</v>
+        <v>1190.801584842276</v>
       </c>
       <c r="E203" t="n">
-        <v>1194.228766432635</v>
+        <v>1194.228885452878</v>
       </c>
       <c r="F203" t="n">
         <v>2675348</v>
@@ -4501,16 +4501,16 @@
         <v>45229</v>
       </c>
       <c r="B204" t="n">
-        <v>1221.019287109375</v>
+        <v>1221.019409179688</v>
       </c>
       <c r="C204" t="n">
-        <v>1230.72183975261</v>
+        <v>1230.721962792927</v>
       </c>
       <c r="D204" t="n">
-        <v>1212.571832069085</v>
+        <v>1212.571953294871</v>
       </c>
       <c r="E204" t="n">
-        <v>1226.087760133549</v>
+        <v>1226.087882710578</v>
       </c>
       <c r="F204" t="n">
         <v>1158770</v>
@@ -4541,16 +4541,16 @@
         <v>45231</v>
       </c>
       <c r="B206" t="n">
-        <v>1215.419799804688</v>
+        <v>1215.419921875</v>
       </c>
       <c r="C206" t="n">
-        <v>1241.486232838169</v>
+        <v>1241.486357526456</v>
       </c>
       <c r="D206" t="n">
-        <v>1211.896098507573</v>
+        <v>1211.896220223983</v>
       </c>
       <c r="E206" t="n">
-        <v>1235.742010476163</v>
+        <v>1235.74213458753</v>
       </c>
       <c r="F206" t="n">
         <v>1572719</v>
@@ -4561,16 +4561,16 @@
         <v>45232</v>
       </c>
       <c r="B207" t="n">
-        <v>1229.370361328125</v>
+        <v>1229.370239257812</v>
       </c>
       <c r="C207" t="n">
-        <v>1230.915015424629</v>
+        <v>1230.914893200941</v>
       </c>
       <c r="D207" t="n">
-        <v>1221.260780009535</v>
+        <v>1221.260658744463</v>
       </c>
       <c r="E207" t="n">
-        <v>1222.226203551044</v>
+        <v>1222.22608219011</v>
       </c>
       <c r="F207" t="n">
         <v>1368604</v>
@@ -4581,16 +4581,16 @@
         <v>45233</v>
       </c>
       <c r="B208" t="n">
-        <v>1222.467407226562</v>
+        <v>1222.467529296875</v>
       </c>
       <c r="C208" t="n">
-        <v>1242.789617384833</v>
+        <v>1242.789741484434</v>
       </c>
       <c r="D208" t="n">
-        <v>1219.329781107323</v>
+        <v>1219.329902864326</v>
       </c>
       <c r="E208" t="n">
-        <v>1238.25205659498</v>
+        <v>1238.252180241479</v>
       </c>
       <c r="F208" t="n">
         <v>2052536</v>
@@ -4601,16 +4601,16 @@
         <v>45236</v>
       </c>
       <c r="B209" t="n">
-        <v>1225.798217773438</v>
+        <v>1225.798095703125</v>
       </c>
       <c r="C209" t="n">
-        <v>1235.259415575738</v>
+        <v>1235.259292563238</v>
       </c>
       <c r="D209" t="n">
-        <v>1221.405611389875</v>
+        <v>1221.405489756998</v>
       </c>
       <c r="E209" t="n">
-        <v>1232.121789080528</v>
+        <v>1232.121666380487</v>
       </c>
       <c r="F209" t="n">
         <v>1175823</v>
@@ -4641,16 +4641,16 @@
         <v>45238</v>
       </c>
       <c r="B211" t="n">
-        <v>1223.818969726562</v>
+        <v>1223.819213867188</v>
       </c>
       <c r="C211" t="n">
-        <v>1236.514310727905</v>
+        <v>1236.514557401134</v>
       </c>
       <c r="D211" t="n">
-        <v>1222.129478813634</v>
+        <v>1222.129722617221</v>
       </c>
       <c r="E211" t="n">
-        <v>1235.741924885039</v>
+        <v>1235.742171404184</v>
       </c>
       <c r="F211" t="n">
         <v>937671</v>
@@ -4681,16 +4681,16 @@
         <v>45240</v>
       </c>
       <c r="B213" t="n">
-        <v>1212.040771484375</v>
+        <v>1212.040893554688</v>
       </c>
       <c r="C213" t="n">
-        <v>1227.053152631602</v>
+        <v>1227.053276213882</v>
       </c>
       <c r="D213" t="n">
-        <v>1207.40680983168</v>
+        <v>1207.406931435285</v>
       </c>
       <c r="E213" t="n">
-        <v>1218.654016114537</v>
+        <v>1218.6541388509</v>
       </c>
       <c r="F213" t="n">
         <v>1469902</v>
@@ -4701,16 +4701,16 @@
         <v>45243</v>
       </c>
       <c r="B214" t="n">
-        <v>1217.39892578125</v>
+        <v>1217.399047851562</v>
       </c>
       <c r="C214" t="n">
-        <v>1219.909003089242</v>
+        <v>1219.909125411243</v>
       </c>
       <c r="D214" t="n">
-        <v>1209.965212628824</v>
+        <v>1209.965333953748</v>
       </c>
       <c r="E214" t="n">
-        <v>1216.433502366673</v>
+        <v>1216.433624340181</v>
       </c>
       <c r="F214" t="n">
         <v>730991</v>
@@ -4841,16 +4841,16 @@
         <v>45253</v>
       </c>
       <c r="B221" t="n">
-        <v>1283.0478515625</v>
+        <v>1283.047729492188</v>
       </c>
       <c r="C221" t="n">
-        <v>1289.08174853185</v>
+        <v>1289.081625887467</v>
       </c>
       <c r="D221" t="n">
-        <v>1279.861906822863</v>
+        <v>1279.861785055665</v>
       </c>
       <c r="E221" t="n">
-        <v>1287.826650822405</v>
+        <v>1287.826528297433</v>
       </c>
       <c r="F221" t="n">
         <v>1307344</v>
@@ -4901,16 +4901,16 @@
         <v>45259</v>
       </c>
       <c r="B224" t="n">
-        <v>1287.826538085938</v>
+        <v>1287.82666015625</v>
       </c>
       <c r="C224" t="n">
-        <v>1292.508936003895</v>
+        <v>1292.509058518042</v>
       </c>
       <c r="D224" t="n">
-        <v>1275.807063514999</v>
+        <v>1275.807184446012</v>
       </c>
       <c r="E224" t="n">
-        <v>1278.220622091456</v>
+        <v>1278.220743251244</v>
       </c>
       <c r="F224" t="n">
         <v>1835524</v>
@@ -4941,16 +4941,16 @@
         <v>45261</v>
       </c>
       <c r="B226" t="n">
-        <v>1290.481567382812</v>
+        <v>1290.4814453125</v>
       </c>
       <c r="C226" t="n">
-        <v>1302.35632377574</v>
+        <v>1302.35620058216</v>
       </c>
       <c r="D226" t="n">
-        <v>1282.082429928971</v>
+        <v>1282.082308653157</v>
       </c>
       <c r="E226" t="n">
-        <v>1299.460053226201</v>
+        <v>1299.459930306589</v>
       </c>
       <c r="F226" t="n">
         <v>1854324</v>
@@ -4961,16 +4961,16 @@
         <v>45264</v>
       </c>
       <c r="B227" t="n">
-        <v>1291.688232421875</v>
+        <v>1291.688354492188</v>
       </c>
       <c r="C227" t="n">
-        <v>1303.321631905739</v>
+        <v>1303.321755075459</v>
       </c>
       <c r="D227" t="n">
-        <v>1284.978586715954</v>
+        <v>1284.978708152175</v>
       </c>
       <c r="E227" t="n">
-        <v>1303.321631905739</v>
+        <v>1303.321755075459</v>
       </c>
       <c r="F227" t="n">
         <v>1547057</v>
@@ -5041,16 +5041,16 @@
         <v>45268</v>
       </c>
       <c r="B231" t="n">
-        <v>1316.934204101562</v>
+        <v>1316.933959960938</v>
       </c>
       <c r="C231" t="n">
-        <v>1322.581908140976</v>
+        <v>1322.581662953348</v>
       </c>
       <c r="D231" t="n">
-        <v>1283.047862015532</v>
+        <v>1283.047624156947</v>
       </c>
       <c r="E231" t="n">
-        <v>1286.909556107377</v>
+        <v>1286.909317532889</v>
       </c>
       <c r="F231" t="n">
         <v>4509751</v>
@@ -5141,16 +5141,16 @@
         <v>45275</v>
       </c>
       <c r="B236" t="n">
-        <v>1439.736083984375</v>
+        <v>1439.736206054688</v>
       </c>
       <c r="C236" t="n">
-        <v>1445.23895068484</v>
+        <v>1445.239073221721</v>
       </c>
       <c r="D236" t="n">
-        <v>1372.832189628485</v>
+        <v>1372.832306026244</v>
       </c>
       <c r="E236" t="n">
-        <v>1372.832189628485</v>
+        <v>1372.832306026244</v>
       </c>
       <c r="F236" t="n">
         <v>7374290</v>
@@ -5161,16 +5161,16 @@
         <v>45278</v>
       </c>
       <c r="B237" t="n">
-        <v>1452.286499023438</v>
+        <v>1452.28662109375</v>
       </c>
       <c r="C237" t="n">
-        <v>1457.692846609914</v>
+        <v>1457.692969134651</v>
       </c>
       <c r="D237" t="n">
-        <v>1429.792086179382</v>
+        <v>1429.792206358952</v>
       </c>
       <c r="E237" t="n">
-        <v>1438.336059883402</v>
+        <v>1438.336180781126</v>
       </c>
       <c r="F237" t="n">
         <v>3075527</v>
@@ -5241,16 +5241,16 @@
         <v>45282</v>
       </c>
       <c r="B241" t="n">
-        <v>1412.124755859375</v>
+        <v>1412.124877929688</v>
       </c>
       <c r="C241" t="n">
-        <v>1416.613998225991</v>
+        <v>1416.614120684374</v>
       </c>
       <c r="D241" t="n">
-        <v>1373.797494132663</v>
+        <v>1373.797612889798</v>
       </c>
       <c r="E241" t="n">
-        <v>1381.520881309797</v>
+        <v>1381.521000734575</v>
       </c>
       <c r="F241" t="n">
         <v>2303438</v>
@@ -5261,16 +5261,16 @@
         <v>45286</v>
       </c>
       <c r="B242" t="n">
-        <v>1407.732177734375</v>
+        <v>1407.732299804688</v>
       </c>
       <c r="C242" t="n">
-        <v>1416.614026022542</v>
+        <v>1416.614148863037</v>
       </c>
       <c r="D242" t="n">
-        <v>1392.285403077014</v>
+        <v>1392.285523807872</v>
       </c>
       <c r="E242" t="n">
-        <v>1412.124783567839</v>
+        <v>1412.124906019053</v>
       </c>
       <c r="F242" t="n">
         <v>1363265</v>
@@ -5321,16 +5321,16 @@
         <v>45289</v>
       </c>
       <c r="B245" t="n">
-        <v>1415.407348632812</v>
+        <v>1415.4072265625</v>
       </c>
       <c r="C245" t="n">
-        <v>1430.612768530632</v>
+        <v>1430.612645148944</v>
       </c>
       <c r="D245" t="n">
-        <v>1407.153048540867</v>
+        <v>1407.152927182438</v>
       </c>
       <c r="E245" t="n">
-        <v>1422.985899424673</v>
+        <v>1422.985776700757</v>
       </c>
       <c r="F245" t="n">
         <v>1481617</v>
